--- a/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
@@ -415,10 +415,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03045854303528017</v>
+        <v>0.03045854303542583</v>
       </c>
       <c r="D2">
-        <v>0.04496657948210503</v>
+        <v>0.04496657948217386</v>
       </c>
       <c r="E2">
         <v>1.710930764393296</v>
@@ -427,7 +427,7 @@
         <v>1.658858749941885</v>
       </c>
       <c r="G2">
-        <v>1.292658465001409</v>
+        <v>1.292658465001423</v>
       </c>
       <c r="H2">
         <v>1.260403793563285</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>22.91529107938732</v>
+        <v>22.91529107938726</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0238279956878138</v>
+        <v>0.02382799568772853</v>
       </c>
       <c r="D3">
-        <v>0.0298914095446694</v>
+        <v>0.02989140954448555</v>
       </c>
       <c r="E3">
-        <v>1.426570935807263</v>
+        <v>1.426570935807291</v>
       </c>
       <c r="F3">
-        <v>1.306620851688621</v>
+        <v>1.306620851688649</v>
       </c>
       <c r="G3">
-        <v>1.00285795947152</v>
+        <v>1.002857959471534</v>
       </c>
       <c r="H3">
-        <v>0.9885833944783045</v>
+        <v>0.9885833944783187</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>19.62268599084888</v>
+        <v>19.62268599084882</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02028828911193514</v>
+        <v>0.02028828911179659</v>
       </c>
       <c r="D4">
-        <v>0.02243666814027545</v>
+        <v>0.02243666814049128</v>
       </c>
       <c r="E4">
-        <v>1.263771180336661</v>
+        <v>1.263771180336704</v>
       </c>
       <c r="F4">
         <v>1.118317769676253</v>
       </c>
       <c r="G4">
-        <v>0.8496945285972686</v>
+        <v>0.8496945285972615</v>
       </c>
       <c r="H4">
-        <v>0.8437039149393186</v>
+        <v>0.8437039149393115</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>17.66500616439015</v>
+        <v>17.66500616439009</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01894948765728088</v>
+        <v>0.01894948765728444</v>
       </c>
       <c r="D5">
-        <v>0.01975373987094375</v>
+        <v>0.01975373987094908</v>
       </c>
       <c r="E5">
-        <v>1.199720643118212</v>
+        <v>1.199720643118184</v>
       </c>
       <c r="F5">
-        <v>1.047198052318137</v>
+        <v>1.047198052318166</v>
       </c>
       <c r="G5">
-        <v>0.7922466999367046</v>
+        <v>0.7922466999366904</v>
       </c>
       <c r="H5">
-        <v>0.7890820554018063</v>
+        <v>0.7890820554018205</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>16.87960710483549</v>
+        <v>16.87960710483532</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01873270626855472</v>
+        <v>0.01873270626867196</v>
       </c>
       <c r="D6">
-        <v>0.01932727282013325</v>
+        <v>0.01932727282002844</v>
       </c>
       <c r="E6">
-        <v>1.189206963807806</v>
+        <v>1.189206963807749</v>
       </c>
       <c r="F6">
-        <v>1.035692653749152</v>
+        <v>1.035692653749166</v>
       </c>
       <c r="G6">
         <v>0.7829762880103814</v>
       </c>
       <c r="H6">
-        <v>0.7802512141954736</v>
+        <v>0.7802512141954878</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16.74984609712658</v>
+        <v>16.74984609712664</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0.0202698479589607</v>
       </c>
       <c r="D7">
-        <v>0.02239915969187312</v>
+        <v>0.02239915969208628</v>
       </c>
       <c r="E7">
         <v>1.262898860981025</v>
@@ -617,16 +617,16 @@
         <v>1.117337516886323</v>
       </c>
       <c r="G7">
-        <v>0.8489011019850849</v>
+        <v>0.8489011019850921</v>
       </c>
       <c r="H7">
-        <v>0.8429506629812664</v>
+        <v>0.8429506629812735</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>17.65436822062878</v>
+        <v>17.6543682206289</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02804124866369762</v>
+        <v>0.02804124866371538</v>
       </c>
       <c r="D8">
-        <v>0.0393268807552305</v>
+        <v>0.03932688075535928</v>
       </c>
       <c r="E8">
-        <v>1.609966726441726</v>
+        <v>1.609966726441712</v>
       </c>
       <c r="F8">
-        <v>1.530626822625038</v>
+        <v>1.530626822625024</v>
       </c>
       <c r="G8">
         <v>1.186725102014762</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>21.76418613185803</v>
+        <v>21.76418613185808</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04948147297384153</v>
+        <v>0.04948147297389482</v>
       </c>
       <c r="D9">
-        <v>0.09329211176128371</v>
+        <v>0.09329211176136676</v>
       </c>
       <c r="E9">
-        <v>2.429071073114756</v>
+        <v>2.429071073114741</v>
       </c>
       <c r="F9">
         <v>2.654759023351303</v>
       </c>
       <c r="G9">
-        <v>2.127591763007558</v>
+        <v>2.127591763007544</v>
       </c>
       <c r="H9">
-        <v>2.032847687154415</v>
+        <v>2.032847687154401</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>30.56513238156759</v>
+        <v>30.56513238156742</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07374858899246561</v>
+        <v>0.07374858899247982</v>
       </c>
       <c r="D10">
-        <v>0.1610456320542575</v>
+        <v>0.1610456320541713</v>
       </c>
       <c r="E10">
-        <v>3.224231336743301</v>
+        <v>3.224231336743244</v>
       </c>
       <c r="F10">
-        <v>3.884886819920496</v>
+        <v>3.884886819920453</v>
       </c>
       <c r="G10">
-        <v>3.179118974704565</v>
+        <v>3.179118974704537</v>
       </c>
       <c r="H10">
-        <v>2.992195873077407</v>
+        <v>2.992195873077392</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>38.00232155343144</v>
+        <v>38.00232155343133</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08900284418304949</v>
+        <v>0.08900284418333371</v>
       </c>
       <c r="D11">
-        <v>0.2056791493282759</v>
+        <v>0.2056791493283656</v>
       </c>
       <c r="E11">
-        <v>3.684123563318281</v>
+        <v>3.684123563318323</v>
       </c>
       <c r="F11">
-        <v>4.635408490782723</v>
+        <v>4.635408490782666</v>
       </c>
       <c r="G11">
-        <v>3.828300574412154</v>
+        <v>3.828300574412125</v>
       </c>
       <c r="H11">
-        <v>3.579540010579663</v>
+        <v>3.57954001057962</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>41.83289009134529</v>
+        <v>41.83289009134512</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09584137536535309</v>
+        <v>0.09584137536572257</v>
       </c>
       <c r="D12">
-        <v>0.2260512222793682</v>
+        <v>0.2260512222792928</v>
       </c>
       <c r="E12">
-        <v>3.883608683278695</v>
+        <v>3.88360868327868</v>
       </c>
       <c r="F12">
-        <v>4.966484878299028</v>
+        <v>4.966484878298999</v>
       </c>
       <c r="G12">
-        <v>4.11617300567724</v>
+        <v>4.116173005677226</v>
       </c>
       <c r="H12">
-        <v>3.839040622630804</v>
+        <v>3.83904062263079</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09430875292498087</v>
+        <v>0.09430875292490271</v>
       </c>
       <c r="D13">
-        <v>0.221468454947356</v>
+        <v>0.2214684549472681</v>
       </c>
       <c r="E13">
-        <v>3.839202017689857</v>
+        <v>3.839202017689843</v>
       </c>
       <c r="F13">
         <v>4.892567926640723</v>
       </c>
       <c r="G13">
-        <v>4.051827756252123</v>
+        <v>4.051827756252152</v>
       </c>
       <c r="H13">
-        <v>3.781083636518787</v>
+        <v>3.781083636518815</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>43.04881733107106</v>
+        <v>43.04881733107135</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08953988084200404</v>
+        <v>0.08953988084211062</v>
       </c>
       <c r="D14">
-        <v>0.2072716750234438</v>
+        <v>0.2072716750232662</v>
       </c>
       <c r="E14">
-        <v>3.699919824310101</v>
+        <v>3.699919824310129</v>
       </c>
       <c r="F14">
-        <v>4.661526484633839</v>
+        <v>4.661526484633725</v>
       </c>
       <c r="G14">
-        <v>3.850978756439559</v>
+        <v>3.850978756439446</v>
       </c>
       <c r="H14">
-        <v>3.600002935399459</v>
+        <v>3.600002935399388</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>41.95847798204301</v>
+        <v>41.95847798204278</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0867782242707591</v>
+        <v>0.08677822427059567</v>
       </c>
       <c r="D15">
-        <v>0.1990963182854859</v>
+        <v>0.1990963182854868</v>
       </c>
       <c r="E15">
-        <v>3.618433614545296</v>
+        <v>3.618433614545282</v>
       </c>
       <c r="F15">
-        <v>4.52700029392777</v>
+        <v>4.527000293927728</v>
       </c>
       <c r="G15">
-        <v>3.734229505887669</v>
+        <v>3.734229505887654</v>
       </c>
       <c r="H15">
-        <v>3.494620516613352</v>
+        <v>3.49462051661331</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>41.30638949525076</v>
+        <v>41.3063894952507</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07286680327162998</v>
+        <v>0.07286680327172235</v>
       </c>
       <c r="D16">
-        <v>0.1585053290856555</v>
+        <v>0.1585053290855489</v>
       </c>
       <c r="E16">
-        <v>3.196887143454532</v>
+        <v>3.196887143454447</v>
       </c>
       <c r="F16">
-        <v>3.840980119489089</v>
+        <v>3.840980119489032</v>
       </c>
       <c r="G16">
-        <v>3.141299995081042</v>
+        <v>3.141299995080999</v>
       </c>
       <c r="H16">
-        <v>2.957878110458637</v>
+        <v>2.957878110458594</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>37.7638615009152</v>
+        <v>37.76386150091514</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0656297009921758</v>
+        <v>0.06562970099234633</v>
       </c>
       <c r="D17">
-        <v>0.13785025035956</v>
+        <v>0.1378502503596524</v>
       </c>
       <c r="E17">
-        <v>2.968666412504888</v>
+        <v>2.968666412504874</v>
       </c>
       <c r="F17">
         <v>3.478403451194765</v>
       </c>
       <c r="G17">
-        <v>2.829737869339851</v>
+        <v>2.829737869339866</v>
       </c>
       <c r="H17">
-        <v>2.674683841588745</v>
+        <v>2.674683841588759</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>35.72614377056044</v>
+        <v>35.7261437705605</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06182529639838208</v>
+        <v>0.06182529639848156</v>
       </c>
       <c r="D18">
-        <v>0.127144572922183</v>
+        <v>0.1271445729220071</v>
       </c>
       <c r="E18">
-        <v>2.845688364215604</v>
+        <v>2.845688364215576</v>
       </c>
       <c r="F18">
         <v>3.286194833151725</v>
       </c>
       <c r="G18">
-        <v>2.665142840242908</v>
+        <v>2.665142840242936</v>
       </c>
       <c r="H18">
-        <v>2.524708469679851</v>
+        <v>2.524708469679879</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06059033413097836</v>
+        <v>0.06059033413124126</v>
       </c>
       <c r="D19">
-        <v>0.1236942648319133</v>
+        <v>0.1236942648317259</v>
       </c>
       <c r="E19">
-        <v>2.805273194310573</v>
+        <v>2.805273194310558</v>
       </c>
       <c r="F19">
-        <v>3.22355980940776</v>
+        <v>3.223559809407718</v>
       </c>
       <c r="G19">
-        <v>2.611597142040168</v>
+        <v>2.611597142040139</v>
       </c>
       <c r="H19">
-        <v>2.47585998151456</v>
+        <v>2.475859981514532</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>34.21472013598139</v>
+        <v>34.21472013598134</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06636090120326088</v>
+        <v>0.0663609012031614</v>
       </c>
       <c r="D20">
-        <v>0.1399205128895016</v>
+        <v>0.1399205128895167</v>
       </c>
       <c r="E20">
-        <v>2.992051912371821</v>
+        <v>2.992051912371835</v>
       </c>
       <c r="F20">
         <v>3.515217681594635</v>
@@ -1114,13 +1114,13 @@
         <v>2.86130973005362</v>
       </c>
       <c r="H20">
-        <v>2.703421337966802</v>
+        <v>2.703421337966816</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>35.93886344395236</v>
+        <v>35.93886344395264</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.09090582254092539</v>
+        <v>0.09090582254071933</v>
       </c>
       <c r="D21">
-        <v>0.2113280209722417</v>
+        <v>0.2113280209722319</v>
       </c>
       <c r="E21">
         <v>3.739992852904408</v>
       </c>
       <c r="F21">
-        <v>4.727865699754986</v>
+        <v>4.727865699755029</v>
       </c>
       <c r="G21">
-        <v>3.908605581878078</v>
+        <v>3.908605581878092</v>
       </c>
       <c r="H21">
-        <v>3.651985091380837</v>
+        <v>3.651985091380894</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>42.27531066152625</v>
+        <v>42.27531066152642</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1138560607887698</v>
+        <v>0.1138560607885921</v>
       </c>
       <c r="D22">
-        <v>0.2805576933353153</v>
+        <v>0.2805576933354992</v>
       </c>
       <c r="E22">
-        <v>4.395060289049354</v>
+        <v>4.395060289049326</v>
       </c>
       <c r="F22">
-        <v>5.823424229100198</v>
+        <v>5.823424229100169</v>
       </c>
       <c r="G22">
-        <v>4.865043860846171</v>
+        <v>4.865043860846114</v>
       </c>
       <c r="H22">
-        <v>4.511748191017176</v>
+        <v>4.511748191017148</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>47.09936536030852</v>
+        <v>47.09936536030835</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1006557341868159</v>
+        <v>0.1006557341871144</v>
       </c>
       <c r="D23">
-        <v>0.2405066389411825</v>
+        <v>0.2405066389412784</v>
       </c>
       <c r="E23">
-        <v>4.022078712066701</v>
+        <v>4.022078712066772</v>
       </c>
       <c r="F23">
-        <v>5.197630004710817</v>
+        <v>5.197630004710746</v>
       </c>
       <c r="G23">
-        <v>4.317651958250295</v>
+        <v>4.317651958250224</v>
       </c>
       <c r="H23">
-        <v>4.02035013250908</v>
+        <v>4.02035013250898</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06602924246310238</v>
+        <v>0.06602924246293895</v>
       </c>
       <c r="D24">
-        <v>0.1389809922762035</v>
+        <v>0.1389809922760996</v>
       </c>
       <c r="E24">
-        <v>2.981454341366018</v>
+        <v>2.981454341366032</v>
       </c>
       <c r="F24">
         <v>3.498524525078622</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0426659487707397</v>
+        <v>0.04266594877053009</v>
       </c>
       <c r="D25">
-        <v>0.07532231724356775</v>
+        <v>0.07532231724356864</v>
       </c>
       <c r="E25">
-        <v>2.184660176866089</v>
+        <v>2.184660176866075</v>
       </c>
       <c r="F25">
-        <v>2.300994583150143</v>
+        <v>2.300994583150043</v>
       </c>
       <c r="G25">
-        <v>1.828902393190916</v>
+        <v>1.828902393190859</v>
       </c>
       <c r="H25">
-        <v>1.757923307961491</v>
+        <v>1.757923307961434</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>28.06452512778918</v>
+        <v>28.06452512778901</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
@@ -415,10 +415,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03045854303542583</v>
+        <v>0.03045854303528017</v>
       </c>
       <c r="D2">
-        <v>0.04496657948217386</v>
+        <v>0.04496657948210503</v>
       </c>
       <c r="E2">
         <v>1.710930764393296</v>
@@ -427,7 +427,7 @@
         <v>1.658858749941885</v>
       </c>
       <c r="G2">
-        <v>1.292658465001423</v>
+        <v>1.292658465001409</v>
       </c>
       <c r="H2">
         <v>1.260403793563285</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>22.91529107938726</v>
+        <v>22.91529107938732</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02382799568772853</v>
+        <v>0.0238279956878138</v>
       </c>
       <c r="D3">
-        <v>0.02989140954448555</v>
+        <v>0.0298914095446694</v>
       </c>
       <c r="E3">
-        <v>1.426570935807291</v>
+        <v>1.426570935807263</v>
       </c>
       <c r="F3">
-        <v>1.306620851688649</v>
+        <v>1.306620851688621</v>
       </c>
       <c r="G3">
-        <v>1.002857959471534</v>
+        <v>1.00285795947152</v>
       </c>
       <c r="H3">
-        <v>0.9885833944783187</v>
+        <v>0.9885833944783045</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>19.62268599084882</v>
+        <v>19.62268599084888</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02028828911179659</v>
+        <v>0.02028828911193514</v>
       </c>
       <c r="D4">
-        <v>0.02243666814049128</v>
+        <v>0.02243666814027545</v>
       </c>
       <c r="E4">
-        <v>1.263771180336704</v>
+        <v>1.263771180336661</v>
       </c>
       <c r="F4">
         <v>1.118317769676253</v>
       </c>
       <c r="G4">
-        <v>0.8496945285972615</v>
+        <v>0.8496945285972686</v>
       </c>
       <c r="H4">
-        <v>0.8437039149393115</v>
+        <v>0.8437039149393186</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>17.66500616439009</v>
+        <v>17.66500616439015</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01894948765728444</v>
+        <v>0.01894948765728088</v>
       </c>
       <c r="D5">
-        <v>0.01975373987094908</v>
+        <v>0.01975373987094375</v>
       </c>
       <c r="E5">
-        <v>1.199720643118184</v>
+        <v>1.199720643118212</v>
       </c>
       <c r="F5">
-        <v>1.047198052318166</v>
+        <v>1.047198052318137</v>
       </c>
       <c r="G5">
-        <v>0.7922466999366904</v>
+        <v>0.7922466999367046</v>
       </c>
       <c r="H5">
-        <v>0.7890820554018205</v>
+        <v>0.7890820554018063</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>16.87960710483532</v>
+        <v>16.87960710483549</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01873270626867196</v>
+        <v>0.01873270626855472</v>
       </c>
       <c r="D6">
-        <v>0.01932727282002844</v>
+        <v>0.01932727282013325</v>
       </c>
       <c r="E6">
-        <v>1.189206963807749</v>
+        <v>1.189206963807806</v>
       </c>
       <c r="F6">
-        <v>1.035692653749166</v>
+        <v>1.035692653749152</v>
       </c>
       <c r="G6">
         <v>0.7829762880103814</v>
       </c>
       <c r="H6">
-        <v>0.7802512141954878</v>
+        <v>0.7802512141954736</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16.74984609712664</v>
+        <v>16.74984609712658</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0.0202698479589607</v>
       </c>
       <c r="D7">
-        <v>0.02239915969208628</v>
+        <v>0.02239915969187312</v>
       </c>
       <c r="E7">
         <v>1.262898860981025</v>
@@ -617,16 +617,16 @@
         <v>1.117337516886323</v>
       </c>
       <c r="G7">
-        <v>0.8489011019850921</v>
+        <v>0.8489011019850849</v>
       </c>
       <c r="H7">
-        <v>0.8429506629812735</v>
+        <v>0.8429506629812664</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>17.6543682206289</v>
+        <v>17.65436822062878</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02804124866371538</v>
+        <v>0.02804124866369762</v>
       </c>
       <c r="D8">
-        <v>0.03932688075535928</v>
+        <v>0.0393268807552305</v>
       </c>
       <c r="E8">
-        <v>1.609966726441712</v>
+        <v>1.609966726441726</v>
       </c>
       <c r="F8">
-        <v>1.530626822625024</v>
+        <v>1.530626822625038</v>
       </c>
       <c r="G8">
         <v>1.186725102014762</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>21.76418613185808</v>
+        <v>21.76418613185803</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04948147297389482</v>
+        <v>0.04948147297384153</v>
       </c>
       <c r="D9">
-        <v>0.09329211176136676</v>
+        <v>0.09329211176128371</v>
       </c>
       <c r="E9">
-        <v>2.429071073114741</v>
+        <v>2.429071073114756</v>
       </c>
       <c r="F9">
         <v>2.654759023351303</v>
       </c>
       <c r="G9">
-        <v>2.127591763007544</v>
+        <v>2.127591763007558</v>
       </c>
       <c r="H9">
-        <v>2.032847687154401</v>
+        <v>2.032847687154415</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>30.56513238156742</v>
+        <v>30.56513238156759</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07374858899247982</v>
+        <v>0.07374858899246561</v>
       </c>
       <c r="D10">
-        <v>0.1610456320541713</v>
+        <v>0.1610456320542575</v>
       </c>
       <c r="E10">
-        <v>3.224231336743244</v>
+        <v>3.224231336743301</v>
       </c>
       <c r="F10">
-        <v>3.884886819920453</v>
+        <v>3.884886819920496</v>
       </c>
       <c r="G10">
-        <v>3.179118974704537</v>
+        <v>3.179118974704565</v>
       </c>
       <c r="H10">
-        <v>2.992195873077392</v>
+        <v>2.992195873077407</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>38.00232155343133</v>
+        <v>38.00232155343144</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08900284418333371</v>
+        <v>0.08900284418304949</v>
       </c>
       <c r="D11">
-        <v>0.2056791493283656</v>
+        <v>0.2056791493282759</v>
       </c>
       <c r="E11">
-        <v>3.684123563318323</v>
+        <v>3.684123563318281</v>
       </c>
       <c r="F11">
-        <v>4.635408490782666</v>
+        <v>4.635408490782723</v>
       </c>
       <c r="G11">
-        <v>3.828300574412125</v>
+        <v>3.828300574412154</v>
       </c>
       <c r="H11">
-        <v>3.57954001057962</v>
+        <v>3.579540010579663</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>41.83289009134512</v>
+        <v>41.83289009134529</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09584137536572257</v>
+        <v>0.09584137536535309</v>
       </c>
       <c r="D12">
-        <v>0.2260512222792928</v>
+        <v>0.2260512222793682</v>
       </c>
       <c r="E12">
-        <v>3.88360868327868</v>
+        <v>3.883608683278695</v>
       </c>
       <c r="F12">
-        <v>4.966484878298999</v>
+        <v>4.966484878299028</v>
       </c>
       <c r="G12">
-        <v>4.116173005677226</v>
+        <v>4.11617300567724</v>
       </c>
       <c r="H12">
-        <v>3.83904062263079</v>
+        <v>3.839040622630804</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09430875292490271</v>
+        <v>0.09430875292498087</v>
       </c>
       <c r="D13">
-        <v>0.2214684549472681</v>
+        <v>0.221468454947356</v>
       </c>
       <c r="E13">
-        <v>3.839202017689843</v>
+        <v>3.839202017689857</v>
       </c>
       <c r="F13">
         <v>4.892567926640723</v>
       </c>
       <c r="G13">
-        <v>4.051827756252152</v>
+        <v>4.051827756252123</v>
       </c>
       <c r="H13">
-        <v>3.781083636518815</v>
+        <v>3.781083636518787</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>43.04881733107135</v>
+        <v>43.04881733107106</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08953988084211062</v>
+        <v>0.08953988084200404</v>
       </c>
       <c r="D14">
-        <v>0.2072716750232662</v>
+        <v>0.2072716750234438</v>
       </c>
       <c r="E14">
-        <v>3.699919824310129</v>
+        <v>3.699919824310101</v>
       </c>
       <c r="F14">
-        <v>4.661526484633725</v>
+        <v>4.661526484633839</v>
       </c>
       <c r="G14">
-        <v>3.850978756439446</v>
+        <v>3.850978756439559</v>
       </c>
       <c r="H14">
-        <v>3.600002935399388</v>
+        <v>3.600002935399459</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>41.95847798204278</v>
+        <v>41.95847798204301</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08677822427059567</v>
+        <v>0.0867782242707591</v>
       </c>
       <c r="D15">
-        <v>0.1990963182854868</v>
+        <v>0.1990963182854859</v>
       </c>
       <c r="E15">
-        <v>3.618433614545282</v>
+        <v>3.618433614545296</v>
       </c>
       <c r="F15">
-        <v>4.527000293927728</v>
+        <v>4.52700029392777</v>
       </c>
       <c r="G15">
-        <v>3.734229505887654</v>
+        <v>3.734229505887669</v>
       </c>
       <c r="H15">
-        <v>3.49462051661331</v>
+        <v>3.494620516613352</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>41.3063894952507</v>
+        <v>41.30638949525076</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07286680327172235</v>
+        <v>0.07286680327162998</v>
       </c>
       <c r="D16">
-        <v>0.1585053290855489</v>
+        <v>0.1585053290856555</v>
       </c>
       <c r="E16">
-        <v>3.196887143454447</v>
+        <v>3.196887143454532</v>
       </c>
       <c r="F16">
-        <v>3.840980119489032</v>
+        <v>3.840980119489089</v>
       </c>
       <c r="G16">
-        <v>3.141299995080999</v>
+        <v>3.141299995081042</v>
       </c>
       <c r="H16">
-        <v>2.957878110458594</v>
+        <v>2.957878110458637</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>37.76386150091514</v>
+        <v>37.7638615009152</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06562970099234633</v>
+        <v>0.0656297009921758</v>
       </c>
       <c r="D17">
-        <v>0.1378502503596524</v>
+        <v>0.13785025035956</v>
       </c>
       <c r="E17">
-        <v>2.968666412504874</v>
+        <v>2.968666412504888</v>
       </c>
       <c r="F17">
         <v>3.478403451194765</v>
       </c>
       <c r="G17">
-        <v>2.829737869339866</v>
+        <v>2.829737869339851</v>
       </c>
       <c r="H17">
-        <v>2.674683841588759</v>
+        <v>2.674683841588745</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>35.7261437705605</v>
+        <v>35.72614377056044</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06182529639848156</v>
+        <v>0.06182529639838208</v>
       </c>
       <c r="D18">
-        <v>0.1271445729220071</v>
+        <v>0.127144572922183</v>
       </c>
       <c r="E18">
-        <v>2.845688364215576</v>
+        <v>2.845688364215604</v>
       </c>
       <c r="F18">
         <v>3.286194833151725</v>
       </c>
       <c r="G18">
-        <v>2.665142840242936</v>
+        <v>2.665142840242908</v>
       </c>
       <c r="H18">
-        <v>2.524708469679879</v>
+        <v>2.524708469679851</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06059033413124126</v>
+        <v>0.06059033413097836</v>
       </c>
       <c r="D19">
-        <v>0.1236942648317259</v>
+        <v>0.1236942648319133</v>
       </c>
       <c r="E19">
-        <v>2.805273194310558</v>
+        <v>2.805273194310573</v>
       </c>
       <c r="F19">
-        <v>3.223559809407718</v>
+        <v>3.22355980940776</v>
       </c>
       <c r="G19">
-        <v>2.611597142040139</v>
+        <v>2.611597142040168</v>
       </c>
       <c r="H19">
-        <v>2.475859981514532</v>
+        <v>2.47585998151456</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>34.21472013598134</v>
+        <v>34.21472013598139</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0663609012031614</v>
+        <v>0.06636090120326088</v>
       </c>
       <c r="D20">
-        <v>0.1399205128895167</v>
+        <v>0.1399205128895016</v>
       </c>
       <c r="E20">
-        <v>2.992051912371835</v>
+        <v>2.992051912371821</v>
       </c>
       <c r="F20">
         <v>3.515217681594635</v>
@@ -1114,13 +1114,13 @@
         <v>2.86130973005362</v>
       </c>
       <c r="H20">
-        <v>2.703421337966816</v>
+        <v>2.703421337966802</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>35.93886344395264</v>
+        <v>35.93886344395236</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.09090582254071933</v>
+        <v>0.09090582254092539</v>
       </c>
       <c r="D21">
-        <v>0.2113280209722319</v>
+        <v>0.2113280209722417</v>
       </c>
       <c r="E21">
         <v>3.739992852904408</v>
       </c>
       <c r="F21">
-        <v>4.727865699755029</v>
+        <v>4.727865699754986</v>
       </c>
       <c r="G21">
-        <v>3.908605581878092</v>
+        <v>3.908605581878078</v>
       </c>
       <c r="H21">
-        <v>3.651985091380894</v>
+        <v>3.651985091380837</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>42.27531066152642</v>
+        <v>42.27531066152625</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1138560607885921</v>
+        <v>0.1138560607887698</v>
       </c>
       <c r="D22">
-        <v>0.2805576933354992</v>
+        <v>0.2805576933353153</v>
       </c>
       <c r="E22">
-        <v>4.395060289049326</v>
+        <v>4.395060289049354</v>
       </c>
       <c r="F22">
-        <v>5.823424229100169</v>
+        <v>5.823424229100198</v>
       </c>
       <c r="G22">
-        <v>4.865043860846114</v>
+        <v>4.865043860846171</v>
       </c>
       <c r="H22">
-        <v>4.511748191017148</v>
+        <v>4.511748191017176</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>47.09936536030835</v>
+        <v>47.09936536030852</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1006557341871144</v>
+        <v>0.1006557341868159</v>
       </c>
       <c r="D23">
-        <v>0.2405066389412784</v>
+        <v>0.2405066389411825</v>
       </c>
       <c r="E23">
-        <v>4.022078712066772</v>
+        <v>4.022078712066701</v>
       </c>
       <c r="F23">
-        <v>5.197630004710746</v>
+        <v>5.197630004710817</v>
       </c>
       <c r="G23">
-        <v>4.317651958250224</v>
+        <v>4.317651958250295</v>
       </c>
       <c r="H23">
-        <v>4.02035013250898</v>
+        <v>4.02035013250908</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06602924246293895</v>
+        <v>0.06602924246310238</v>
       </c>
       <c r="D24">
-        <v>0.1389809922760996</v>
+        <v>0.1389809922762035</v>
       </c>
       <c r="E24">
-        <v>2.981454341366032</v>
+        <v>2.981454341366018</v>
       </c>
       <c r="F24">
         <v>3.498524525078622</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04266594877053009</v>
+        <v>0.0426659487707397</v>
       </c>
       <c r="D25">
-        <v>0.07532231724356864</v>
+        <v>0.07532231724356775</v>
       </c>
       <c r="E25">
-        <v>2.184660176866075</v>
+        <v>2.184660176866089</v>
       </c>
       <c r="F25">
-        <v>2.300994583150043</v>
+        <v>2.300994583150143</v>
       </c>
       <c r="G25">
-        <v>1.828902393190859</v>
+        <v>1.828902393190916</v>
       </c>
       <c r="H25">
-        <v>1.757923307961434</v>
+        <v>1.757923307961491</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>28.06452512778901</v>
+        <v>28.06452512778918</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03045854303528017</v>
+        <v>0.03046728885503214</v>
       </c>
       <c r="D2">
-        <v>0.04496657948210503</v>
+        <v>0.04488078973108856</v>
       </c>
       <c r="E2">
-        <v>1.710930764393296</v>
+        <v>1.710621371751671</v>
       </c>
       <c r="F2">
-        <v>1.658858749941885</v>
+        <v>1.65632245659792</v>
       </c>
       <c r="G2">
-        <v>1.292658465001409</v>
+        <v>0.4668825837731987</v>
       </c>
       <c r="H2">
-        <v>1.260403793563285</v>
+        <v>0.8266628801849691</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.258411118080758</v>
       </c>
       <c r="J2">
-        <v>22.91529107938732</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.91297442177739</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0238279956878138</v>
+        <v>0.02384368604296938</v>
       </c>
       <c r="D3">
-        <v>0.0298914095446694</v>
+        <v>0.02984122184306326</v>
       </c>
       <c r="E3">
-        <v>1.426570935807263</v>
+        <v>1.426370519451979</v>
       </c>
       <c r="F3">
-        <v>1.306620851688621</v>
+        <v>1.304684502746113</v>
       </c>
       <c r="G3">
-        <v>1.00285795947152</v>
+        <v>0.3626512888063615</v>
       </c>
       <c r="H3">
-        <v>0.9885833944783045</v>
+        <v>0.6419494332223152</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.9870647326990536</v>
       </c>
       <c r="J3">
-        <v>19.62268599084888</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.62112022802478</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02028828911193514</v>
+        <v>0.0203066205926099</v>
       </c>
       <c r="D4">
-        <v>0.02243666814027545</v>
+        <v>0.02240321719021665</v>
       </c>
       <c r="E4">
-        <v>1.263771180336661</v>
+        <v>1.263621014916453</v>
       </c>
       <c r="F4">
-        <v>1.118317769676253</v>
+        <v>1.116688689833097</v>
       </c>
       <c r="G4">
-        <v>0.8496945285972686</v>
+        <v>0.3069588264219902</v>
       </c>
       <c r="H4">
-        <v>0.8437039149393186</v>
+        <v>0.5449276433478261</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.8424277893859937</v>
       </c>
       <c r="J4">
-        <v>17.66500616439015</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.66380310316521</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01894948765728088</v>
+        <v>0.0189685875794261</v>
       </c>
       <c r="D5">
-        <v>0.01975373987094375</v>
+        <v>0.019726141658996</v>
       </c>
       <c r="E5">
-        <v>1.199720643118212</v>
+        <v>1.199588022978176</v>
       </c>
       <c r="F5">
-        <v>1.047198052318137</v>
+        <v>1.045682721109912</v>
       </c>
       <c r="G5">
-        <v>0.7922466999367046</v>
+        <v>0.2859237437018791</v>
       </c>
       <c r="H5">
-        <v>0.7890820554018063</v>
+        <v>0.5086834208230826</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.7878956612988972</v>
       </c>
       <c r="J5">
-        <v>16.87960710483549</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.87853378000347</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01873270626855472</v>
+        <v>0.0187519175437032</v>
       </c>
       <c r="D6">
-        <v>0.01932727282013325</v>
+        <v>0.01930059550717811</v>
       </c>
       <c r="E6">
-        <v>1.189206963807806</v>
+        <v>1.18907710805442</v>
       </c>
       <c r="F6">
-        <v>1.035692653749152</v>
+        <v>1.034195608931654</v>
       </c>
       <c r="G6">
-        <v>0.7829762880103814</v>
+        <v>0.2825205288972157</v>
       </c>
       <c r="H6">
-        <v>0.7802512141954736</v>
+        <v>0.5028434402553827</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.7790792423353636</v>
       </c>
       <c r="J6">
-        <v>16.74984609712658</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.74879337794442</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0202698479589607</v>
+        <v>0.02028819093985135</v>
       </c>
       <c r="D7">
-        <v>0.02239915969187312</v>
+        <v>0.02236579124153337</v>
       </c>
       <c r="E7">
-        <v>1.262898860981025</v>
+        <v>1.262748942735072</v>
       </c>
       <c r="F7">
-        <v>1.117337516886323</v>
+        <v>1.115710013272022</v>
       </c>
       <c r="G7">
-        <v>0.8489011019850849</v>
+        <v>0.3066689102062625</v>
       </c>
       <c r="H7">
-        <v>0.8429506629812664</v>
+        <v>0.544426459367493</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.8416757810654758</v>
       </c>
       <c r="J7">
-        <v>17.65436822062878</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.65316697501754</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02804124866369762</v>
+        <v>0.02805279776633185</v>
       </c>
       <c r="D8">
-        <v>0.0393268807552305</v>
+        <v>0.03925466026036162</v>
       </c>
       <c r="E8">
-        <v>1.609966726441726</v>
+        <v>1.609699299875217</v>
       </c>
       <c r="F8">
-        <v>1.530626822625038</v>
+        <v>1.528312874897495</v>
       </c>
       <c r="G8">
-        <v>1.186725102014762</v>
+        <v>0.4289251196404251</v>
       </c>
       <c r="H8">
-        <v>1.161340804544579</v>
+        <v>0.759001190390606</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.159523862912636</v>
       </c>
       <c r="J8">
-        <v>21.76418613185803</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>21.76215361880151</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04948147297384153</v>
+        <v>0.04945937417016921</v>
       </c>
       <c r="D9">
-        <v>0.09329211176128371</v>
+        <v>0.0930791864128353</v>
       </c>
       <c r="E9">
-        <v>2.429071073114756</v>
+        <v>2.42833763462265</v>
       </c>
       <c r="F9">
-        <v>2.654759023351303</v>
+        <v>2.650323253395271</v>
       </c>
       <c r="G9">
-        <v>2.127591763007558</v>
+        <v>0.7623272296557388</v>
       </c>
       <c r="H9">
-        <v>2.032847687154415</v>
+        <v>1.363576884610822</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.029351911233462</v>
       </c>
       <c r="J9">
-        <v>30.56513238156759</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>30.56018310892478</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07374858899246561</v>
+        <v>0.07366785064348846</v>
       </c>
       <c r="D10">
-        <v>0.1610456320542575</v>
+        <v>0.160620870544431</v>
       </c>
       <c r="E10">
-        <v>3.224231336743301</v>
+        <v>3.222669210980499</v>
       </c>
       <c r="F10">
-        <v>3.884886819920496</v>
+        <v>3.877574847554598</v>
       </c>
       <c r="G10">
-        <v>3.179118974704565</v>
+        <v>1.128940709023524</v>
       </c>
       <c r="H10">
-        <v>2.992195873077407</v>
+        <v>2.044860018327554</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.986420762635916</v>
       </c>
       <c r="J10">
-        <v>38.00232155343144</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>37.99294621224789</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08900284418304949</v>
+        <v>0.08887395726004854</v>
       </c>
       <c r="D11">
-        <v>0.2056791493282759</v>
+        <v>0.205089076279533</v>
       </c>
       <c r="E11">
-        <v>3.684123563318281</v>
+        <v>3.681818025213346</v>
       </c>
       <c r="F11">
-        <v>4.635408490782723</v>
+        <v>4.625947040438447</v>
       </c>
       <c r="G11">
-        <v>3.828300574412154</v>
+        <v>1.353454121851811</v>
       </c>
       <c r="H11">
-        <v>3.579540010579663</v>
+        <v>2.466964193041804</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.572060137534251</v>
       </c>
       <c r="J11">
-        <v>41.83289009134529</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>41.82000404228324</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09584137536535309</v>
+        <v>0.09568765311435357</v>
       </c>
       <c r="D12">
-        <v>0.2260512222793682</v>
+        <v>0.2253773144596058</v>
       </c>
       <c r="E12">
-        <v>3.883608683278695</v>
+        <v>3.880896419186698</v>
       </c>
       <c r="F12">
-        <v>4.966484878299028</v>
+        <v>4.955950157375455</v>
       </c>
       <c r="G12">
-        <v>4.11617300567724</v>
+        <v>1.4526738865315</v>
       </c>
       <c r="H12">
-        <v>3.839040622630804</v>
+        <v>2.654373868927124</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.830709256927506</v>
       </c>
       <c r="J12">
-        <v>43.39003837090456</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>43.37535593570925</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09430875292498087</v>
+        <v>0.09416078753180557</v>
       </c>
       <c r="D13">
-        <v>0.221468454947356</v>
+        <v>0.2208139157038724</v>
       </c>
       <c r="E13">
-        <v>3.839202017689857</v>
+        <v>3.836585423921534</v>
       </c>
       <c r="F13">
-        <v>4.892567926640723</v>
+        <v>4.882280391829283</v>
       </c>
       <c r="G13">
-        <v>4.051827756252123</v>
+        <v>1.430512768039591</v>
       </c>
       <c r="H13">
-        <v>3.781083636518787</v>
+        <v>2.612474042911629</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.772948392614495</v>
       </c>
       <c r="J13">
-        <v>43.04881733107106</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>43.03455076313264</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08953988084200404</v>
+        <v>0.08940912124803191</v>
       </c>
       <c r="D14">
-        <v>0.2072716750234438</v>
+        <v>0.2066752535622376</v>
       </c>
       <c r="E14">
-        <v>3.699919824310101</v>
+        <v>3.697584164892859</v>
       </c>
       <c r="F14">
-        <v>4.661526484633839</v>
+        <v>4.651983436987592</v>
       </c>
       <c r="G14">
-        <v>3.850978756439559</v>
+        <v>1.361277533671199</v>
       </c>
       <c r="H14">
-        <v>3.600002935399459</v>
+        <v>2.481723661307754</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.592458331728793</v>
       </c>
       <c r="J14">
-        <v>41.95847798204301</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>41.94545624438348</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0867782242707591</v>
+        <v>0.08665695937364859</v>
       </c>
       <c r="D15">
-        <v>0.1990963182854859</v>
+        <v>0.1985321357869889</v>
       </c>
       <c r="E15">
-        <v>3.618433614545296</v>
+        <v>3.616249745660042</v>
       </c>
       <c r="F15">
-        <v>4.52700029392777</v>
+        <v>4.517872233865518</v>
       </c>
       <c r="G15">
-        <v>3.734229505887669</v>
+        <v>1.320988638255955</v>
       </c>
       <c r="H15">
-        <v>3.494620516613352</v>
+        <v>2.40574943337495</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.48740510958379</v>
       </c>
       <c r="J15">
-        <v>41.30638949525076</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>41.29405620271706</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07286680327162998</v>
+        <v>0.07278856751491247</v>
       </c>
       <c r="D16">
-        <v>0.1585053290856555</v>
+        <v>0.1580893012536517</v>
       </c>
       <c r="E16">
-        <v>3.196887143454532</v>
+        <v>3.195362026154413</v>
       </c>
       <c r="F16">
-        <v>3.840980119489089</v>
+        <v>3.833783352116242</v>
       </c>
       <c r="G16">
-        <v>3.141299995081042</v>
+        <v>1.115824937979383</v>
       </c>
       <c r="H16">
-        <v>2.957878110458637</v>
+        <v>2.020297418227543</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.952194344073575</v>
       </c>
       <c r="J16">
-        <v>37.7638615009152</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>37.75467031951439</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0656297009921758</v>
+        <v>0.06557092108910467</v>
       </c>
       <c r="D17">
-        <v>0.13785025035956</v>
+        <v>0.137502811534759</v>
       </c>
       <c r="E17">
-        <v>2.968666412504888</v>
+        <v>2.967423659400126</v>
       </c>
       <c r="F17">
-        <v>3.478403451194765</v>
+        <v>3.472119308122771</v>
       </c>
       <c r="G17">
-        <v>2.829737869339851</v>
+        <v>1.007599322444761</v>
       </c>
       <c r="H17">
-        <v>2.674683841588745</v>
+        <v>1.81808777786199</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.669723564104089</v>
       </c>
       <c r="J17">
-        <v>35.72614377056044</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>35.71839384937596</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06182529639838208</v>
+        <v>0.06177598685593466</v>
       </c>
       <c r="D18">
-        <v>0.127144572922183</v>
+        <v>0.1268310648606219</v>
       </c>
       <c r="E18">
-        <v>2.845688364215604</v>
+        <v>2.844579748357404</v>
       </c>
       <c r="F18">
-        <v>3.286194833151725</v>
+        <v>3.280368295745333</v>
       </c>
       <c r="G18">
-        <v>2.665142840242908</v>
+        <v>0.9502884875521858</v>
       </c>
       <c r="H18">
-        <v>2.524708469679851</v>
+        <v>1.711377892001721</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.52011087526418</v>
       </c>
       <c r="J18">
-        <v>34.59268070706486</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>34.58564041369732</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06059033413097836</v>
+        <v>0.06054398854903198</v>
       </c>
       <c r="D19">
-        <v>0.1236942648319133</v>
+        <v>0.123391467364387</v>
       </c>
       <c r="E19">
-        <v>2.805273194310573</v>
+        <v>2.804206140758041</v>
       </c>
       <c r="F19">
-        <v>3.22355980940776</v>
+        <v>3.217878730630844</v>
       </c>
       <c r="G19">
-        <v>2.611597142040168</v>
+        <v>0.9316220519273912</v>
       </c>
       <c r="H19">
-        <v>2.47585998151456</v>
+        <v>1.676682573413075</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.471377658992395</v>
       </c>
       <c r="J19">
-        <v>34.21472013598139</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>34.20790338079462</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06636090120326088</v>
+        <v>0.06630024197048812</v>
       </c>
       <c r="D20">
-        <v>0.1399205128895016</v>
+        <v>0.1395663881991824</v>
       </c>
       <c r="E20">
-        <v>2.992051912371821</v>
+        <v>2.9907822900024</v>
       </c>
       <c r="F20">
-        <v>3.515217681594635</v>
+        <v>3.508843895998211</v>
       </c>
       <c r="G20">
-        <v>2.86130973005362</v>
+        <v>1.018581153352201</v>
       </c>
       <c r="H20">
-        <v>2.703421337966802</v>
+        <v>1.838566056069183</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.698390005533767</v>
       </c>
       <c r="J20">
-        <v>35.93886344395236</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>35.93097343069167</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.09090582254092539</v>
+        <v>0.09077024154472468</v>
       </c>
       <c r="D21">
-        <v>0.2113280209722417</v>
+        <v>0.2107152765160221</v>
       </c>
       <c r="E21">
-        <v>3.739992852904408</v>
+        <v>3.737579229972837</v>
       </c>
       <c r="F21">
-        <v>4.727865699754986</v>
+        <v>4.718113108366964</v>
       </c>
       <c r="G21">
-        <v>3.908605581878078</v>
+        <v>1.381151857647055</v>
       </c>
       <c r="H21">
-        <v>3.651985091380837</v>
+        <v>2.519232046226719</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.644274253560624</v>
       </c>
       <c r="J21">
-        <v>42.27531066152625</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>42.26193977520217</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1138560607887698</v>
+        <v>0.1136252279511822</v>
       </c>
       <c r="D22">
-        <v>0.2805576933353153</v>
+        <v>0.2796270151354294</v>
       </c>
       <c r="E22">
-        <v>4.395060289049354</v>
+        <v>4.390988706024189</v>
       </c>
       <c r="F22">
-        <v>5.823424229100198</v>
+        <v>5.809645151632736</v>
       </c>
       <c r="G22">
-        <v>4.865043860846171</v>
+        <v>1.709945858110814</v>
       </c>
       <c r="H22">
-        <v>4.511748191017176</v>
+        <v>3.142335810439931</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.500842086146747</v>
       </c>
       <c r="J22">
-        <v>47.09936536030852</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>47.07913038481087</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1006557341868159</v>
+        <v>0.1004831682841214</v>
       </c>
       <c r="D23">
-        <v>0.2405066389411825</v>
+        <v>0.2397695640472559</v>
       </c>
       <c r="E23">
-        <v>4.022078712066701</v>
+        <v>4.019047510596238</v>
       </c>
       <c r="F23">
-        <v>5.197630004710817</v>
+        <v>5.186291937936744</v>
       </c>
       <c r="G23">
-        <v>4.317651958250295</v>
+        <v>1.522006232413247</v>
       </c>
       <c r="H23">
-        <v>4.02035013250908</v>
+        <v>2.785604121372572</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.011381327236805</v>
       </c>
       <c r="J23">
-        <v>44.43426127417109</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>44.41821932930668</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06602924246310238</v>
+        <v>0.06596943803578625</v>
       </c>
       <c r="D24">
-        <v>0.1389809922762035</v>
+        <v>0.138629906818923</v>
       </c>
       <c r="E24">
-        <v>2.981454341366018</v>
+        <v>2.980196950872497</v>
       </c>
       <c r="F24">
-        <v>3.498524525078622</v>
+        <v>3.492191468645274</v>
       </c>
       <c r="G24">
-        <v>2.846991876388302</v>
+        <v>1.013601323693038</v>
       </c>
       <c r="H24">
-        <v>2.690390039662461</v>
+        <v>1.82927877664973</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.685390991392381</v>
       </c>
       <c r="J24">
-        <v>35.84257691004012</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>35.83475059001842</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0426659487707397</v>
+        <v>0.04265653772997169</v>
       </c>
       <c r="D25">
-        <v>0.07532231724356775</v>
+        <v>0.07515888246131563</v>
       </c>
       <c r="E25">
-        <v>2.184660176866089</v>
+        <v>2.184098578386696</v>
       </c>
       <c r="F25">
-        <v>2.300994583150143</v>
+        <v>2.29727101030835</v>
       </c>
       <c r="G25">
-        <v>1.828902393190916</v>
+        <v>0.6572383982923355</v>
       </c>
       <c r="H25">
-        <v>1.757923307961491</v>
+        <v>1.170921369195597</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.754991412068819</v>
       </c>
       <c r="J25">
-        <v>28.06452512778918</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>28.06059940654109</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03046728885503214</v>
+        <v>0.1587439007756615</v>
       </c>
       <c r="D2">
-        <v>0.04488078973108856</v>
+        <v>0.4113001669414018</v>
       </c>
       <c r="E2">
-        <v>1.710621371751671</v>
+        <v>0.09403448782438772</v>
       </c>
       <c r="F2">
-        <v>1.65632245659792</v>
+        <v>7.121407926851731</v>
       </c>
       <c r="G2">
-        <v>0.4668825837731987</v>
+        <v>0.0007178942488471349</v>
       </c>
       <c r="H2">
-        <v>0.8266628801849691</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.258411118080758</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02657442641812047</v>
       </c>
       <c r="K2">
-        <v>22.91297442177739</v>
+        <v>8.340969855110188</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.736813187571173</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02384368604296938</v>
+        <v>0.1324551209041829</v>
       </c>
       <c r="D3">
-        <v>0.02984122184306326</v>
+        <v>0.3352580569792138</v>
       </c>
       <c r="E3">
-        <v>1.426370519451979</v>
+        <v>0.07944939530833039</v>
       </c>
       <c r="F3">
-        <v>1.304684502746113</v>
+        <v>6.108913751716813</v>
       </c>
       <c r="G3">
-        <v>0.3626512888063615</v>
+        <v>0.0007470290940251988</v>
       </c>
       <c r="H3">
-        <v>0.6419494332223152</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9870647326990536</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.028705365540036</v>
       </c>
       <c r="K3">
-        <v>19.62112022802478</v>
+        <v>7.06929552263108</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.030414270914861</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0203066205926099</v>
+        <v>0.1174440120898623</v>
       </c>
       <c r="D4">
-        <v>0.02240321719021665</v>
+        <v>0.2932629363806711</v>
       </c>
       <c r="E4">
-        <v>1.263621014916453</v>
+        <v>0.07111394421339412</v>
       </c>
       <c r="F4">
-        <v>1.116688689833097</v>
+        <v>5.559029992961172</v>
       </c>
       <c r="G4">
-        <v>0.3069588264219902</v>
+        <v>0.0007645731691330315</v>
       </c>
       <c r="H4">
-        <v>0.5449276433478261</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8424277893859937</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03003549537225503</v>
       </c>
       <c r="K4">
-        <v>17.66380310316521</v>
+        <v>6.333127314840141</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>3.62106467728556</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0189685875794261</v>
+        <v>0.1115446927265396</v>
       </c>
       <c r="D5">
-        <v>0.019726141658996</v>
+        <v>0.2770544745326475</v>
       </c>
       <c r="E5">
-        <v>1.199588022978176</v>
+        <v>0.06783400871222867</v>
       </c>
       <c r="F5">
-        <v>1.045682721109912</v>
+        <v>5.349136575822001</v>
       </c>
       <c r="G5">
-        <v>0.2859237437018791</v>
+        <v>0.0007716816733056575</v>
       </c>
       <c r="H5">
-        <v>0.5086834208230826</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7878956612988972</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.03058429321864331</v>
       </c>
       <c r="K5">
-        <v>16.87853378000347</v>
+        <v>6.041761157355211</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3.458978311159825</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0187519175437032</v>
+        <v>0.1105766717290066</v>
       </c>
       <c r="D6">
-        <v>0.01930059550717811</v>
+        <v>0.2744111239494913</v>
       </c>
       <c r="E6">
-        <v>1.18907710805442</v>
+        <v>0.06729550132457263</v>
       </c>
       <c r="F6">
-        <v>1.034195608931654</v>
+        <v>5.315047954710337</v>
       </c>
       <c r="G6">
-        <v>0.2825205288972157</v>
+        <v>0.0007728606743684092</v>
       </c>
       <c r="H6">
-        <v>0.5028434402553827</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7790792423353636</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.03067586018044821</v>
       </c>
       <c r="K6">
-        <v>16.74879337794442</v>
+        <v>5.993838430676902</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3.432315545071617</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02028819093985135</v>
+        <v>0.1173636441846071</v>
       </c>
       <c r="D7">
-        <v>0.02236579124153337</v>
+        <v>0.2930409866138746</v>
       </c>
       <c r="E7">
-        <v>1.262748942735072</v>
+        <v>0.07106928022779258</v>
       </c>
       <c r="F7">
-        <v>1.115710013272022</v>
+        <v>5.556146168309937</v>
       </c>
       <c r="G7">
-        <v>0.3066689102062625</v>
+        <v>0.0007646691508944592</v>
       </c>
       <c r="H7">
-        <v>0.544426459367493</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8416757810654758</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03004286783095367</v>
       </c>
       <c r="K7">
-        <v>17.65316697501754</v>
+        <v>6.329165827964374</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3.618861161765963</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02805279776633185</v>
+        <v>0.1493982322330396</v>
       </c>
       <c r="D8">
-        <v>0.03925466026036162</v>
+        <v>0.383911511045298</v>
       </c>
       <c r="E8">
-        <v>1.609699299875217</v>
+        <v>0.08884926123407411</v>
       </c>
       <c r="F8">
-        <v>1.528312874897495</v>
+        <v>6.754678018483247</v>
       </c>
       <c r="G8">
-        <v>0.4289251196404251</v>
+        <v>0.0007280437496857852</v>
       </c>
       <c r="H8">
-        <v>0.759001190390606</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.159523862912636</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.02730557673797129</v>
       </c>
       <c r="K8">
-        <v>21.76215361880151</v>
+        <v>7.89140606744354</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.487201078890351</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04945937417016921</v>
+        <v>0.2258498878871364</v>
       </c>
       <c r="D9">
-        <v>0.0930791864128353</v>
+        <v>0.6190201321980453</v>
       </c>
       <c r="E9">
-        <v>2.42833763462265</v>
+        <v>0.1314309519485057</v>
       </c>
       <c r="F9">
-        <v>2.650323253395271</v>
+        <v>9.947197766149486</v>
       </c>
       <c r="G9">
-        <v>0.7623272296557388</v>
+        <v>0.0006502694395717813</v>
       </c>
       <c r="H9">
-        <v>1.363576884610822</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.029351911233462</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.02201939732956859</v>
       </c>
       <c r="K9">
-        <v>30.56018310892478</v>
+        <v>11.49072420500553</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6.481326151454539</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07366785064348846</v>
+        <v>0.3032862396416931</v>
       </c>
       <c r="D10">
-        <v>0.160620870544431</v>
+        <v>0.8823139746289144</v>
       </c>
       <c r="E10">
-        <v>3.222669210980499</v>
+        <v>0.1754277983599906</v>
       </c>
       <c r="F10">
-        <v>3.877574847554598</v>
+        <v>13.56861680065236</v>
       </c>
       <c r="G10">
-        <v>1.128940709023524</v>
+        <v>0.0005805719319319753</v>
       </c>
       <c r="H10">
-        <v>2.044860018327554</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.986420762635916</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.01793908218788332</v>
       </c>
       <c r="K10">
-        <v>37.99294621224789</v>
+        <v>14.96211661099923</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>8.392552272522522</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08887395726004854</v>
+        <v>0.3521974123980698</v>
       </c>
       <c r="D11">
-        <v>0.205089076279533</v>
+        <v>1.061925729201647</v>
       </c>
       <c r="E11">
-        <v>3.681818025213346</v>
+        <v>0.2040235829922814</v>
       </c>
       <c r="F11">
-        <v>4.625947040438447</v>
+        <v>16.03085340570721</v>
       </c>
       <c r="G11">
-        <v>1.353454121851811</v>
+        <v>0.0005398862190241827</v>
       </c>
       <c r="H11">
-        <v>2.466964193041804</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3.572060137534251</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01587869433684741</v>
       </c>
       <c r="K11">
-        <v>41.82000404228324</v>
+        <v>17.06783234720106</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>9.544066033643617</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09568765311435357</v>
+        <v>0.3755602739954043</v>
       </c>
       <c r="D12">
-        <v>0.2253773144596058</v>
+        <v>1.151534639516399</v>
       </c>
       <c r="E12">
-        <v>3.880896419186698</v>
+        <v>0.2179859032635356</v>
       </c>
       <c r="F12">
-        <v>4.955950157375455</v>
+        <v>17.25177710874391</v>
       </c>
       <c r="G12">
-        <v>1.4526738865315</v>
+        <v>0.0005212028359478146</v>
       </c>
       <c r="H12">
-        <v>2.654373868927124</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3.830709256927506</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.01502234846455686</v>
       </c>
       <c r="K12">
-        <v>43.37535593570925</v>
+        <v>18.0502902090999</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>10.07880217418881</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09416078753180557</v>
+        <v>0.3701893671470344</v>
       </c>
       <c r="D13">
-        <v>0.2208139157038724</v>
+        <v>1.130709372259503</v>
       </c>
       <c r="E13">
-        <v>3.836585423921534</v>
+        <v>0.2147562823330667</v>
       </c>
       <c r="F13">
-        <v>4.882280391829283</v>
+        <v>16.96858531230453</v>
       </c>
       <c r="G13">
-        <v>1.430512768039591</v>
+        <v>0.0005254581392490416</v>
       </c>
       <c r="H13">
-        <v>2.612474042911629</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3.772948392614495</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.01521205169884254</v>
       </c>
       <c r="K13">
-        <v>43.03455076313264</v>
+        <v>17.82576145121635</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>9.95675135313536</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08940912124803191</v>
+        <v>0.3539832415268194</v>
       </c>
       <c r="D14">
-        <v>0.2066752535622376</v>
+        <v>1.068686319817658</v>
       </c>
       <c r="E14">
-        <v>3.697584164892859</v>
+        <v>0.2050831973239013</v>
       </c>
       <c r="F14">
-        <v>4.651983436987592</v>
+        <v>16.12317303968553</v>
       </c>
       <c r="G14">
-        <v>1.361277533671199</v>
+        <v>0.000538441923395977</v>
       </c>
       <c r="H14">
-        <v>2.481723661307754</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>3.592458331728793</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.01581037156989584</v>
       </c>
       <c r="K14">
-        <v>41.94545624438348</v>
+        <v>17.14346095761664</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>9.58529102238316</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08665695937364859</v>
+        <v>0.3448671092344711</v>
       </c>
       <c r="D15">
-        <v>0.1985321357869889</v>
+        <v>1.034327629389594</v>
       </c>
       <c r="E15">
-        <v>3.616249745660042</v>
+        <v>0.1996866417095262</v>
       </c>
       <c r="F15">
-        <v>4.517872233865518</v>
+        <v>15.65366899130282</v>
       </c>
       <c r="G15">
-        <v>1.320988638255955</v>
+        <v>0.0005458435984039406</v>
       </c>
       <c r="H15">
-        <v>2.40574943337495</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3.48740510958379</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.01616414533305832</v>
       </c>
       <c r="K15">
-        <v>41.29405620271706</v>
+        <v>16.75647655373521</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>9.374243574829734</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07278856751491247</v>
+        <v>0.3005145611412559</v>
       </c>
       <c r="D16">
-        <v>0.1580893012536517</v>
+        <v>0.8724501728213454</v>
       </c>
       <c r="E16">
-        <v>3.195362026154413</v>
+        <v>0.1738292976181981</v>
       </c>
       <c r="F16">
-        <v>3.833783352116242</v>
+        <v>13.43299272618515</v>
       </c>
       <c r="G16">
-        <v>1.115824937979383</v>
+        <v>0.0005829470112238101</v>
       </c>
       <c r="H16">
-        <v>2.020297418227543</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.952194344073575</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.01806708234968557</v>
       </c>
       <c r="K16">
-        <v>37.75467031951439</v>
+        <v>14.84079539286199</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>8.326007177764097</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06557092108910467</v>
+        <v>0.2777692714573448</v>
       </c>
       <c r="D17">
-        <v>0.137502811534759</v>
+        <v>0.7927497883929391</v>
       </c>
       <c r="E17">
-        <v>2.967423659400126</v>
+        <v>0.1607866956953572</v>
       </c>
       <c r="F17">
-        <v>3.472119308122771</v>
+        <v>12.33636092967811</v>
       </c>
       <c r="G17">
-        <v>1.007599322444761</v>
+        <v>0.0006027474656920634</v>
       </c>
       <c r="H17">
-        <v>1.81808777786199</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.669723564104089</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.01916550497224634</v>
       </c>
       <c r="K17">
-        <v>35.71839384937596</v>
+        <v>13.83704110346434</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7.774695331904638</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06177598685593466</v>
+        <v>0.2657476476302776</v>
       </c>
       <c r="D18">
-        <v>0.1268310648606219</v>
+        <v>0.7515146817571292</v>
       </c>
       <c r="E18">
-        <v>2.844579748357404</v>
+        <v>0.1539427876586075</v>
       </c>
       <c r="F18">
-        <v>3.280368295745333</v>
+        <v>11.76875568848465</v>
       </c>
       <c r="G18">
-        <v>0.9502884875521858</v>
+        <v>0.0006134478709098623</v>
       </c>
       <c r="H18">
-        <v>1.711377892001721</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.52011087526418</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.01978182279796137</v>
       </c>
       <c r="K18">
-        <v>34.58564041369732</v>
+        <v>13.30062266038763</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>7.479549016786507</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06054398854903198</v>
+        <v>0.2618259687880737</v>
       </c>
       <c r="D19">
-        <v>0.123391467364387</v>
+        <v>0.738195076095792</v>
       </c>
       <c r="E19">
-        <v>2.804206140758041</v>
+        <v>0.1517168924545516</v>
       </c>
       <c r="F19">
-        <v>3.217878730630844</v>
+        <v>11.58542670688666</v>
       </c>
       <c r="G19">
-        <v>0.9316220519273912</v>
+        <v>0.0006169757788627464</v>
       </c>
       <c r="H19">
-        <v>1.676682573413075</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.471377658992395</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.01998843578397391</v>
       </c>
       <c r="K19">
-        <v>34.20790338079462</v>
+        <v>13.12474484904058</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7.382703886227318</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06630024197048812</v>
+        <v>0.2800719040878334</v>
       </c>
       <c r="D20">
-        <v>0.1395663881991824</v>
+        <v>0.8007178735362857</v>
       </c>
       <c r="E20">
-        <v>2.9907822900024</v>
+        <v>0.1621012970655968</v>
       </c>
       <c r="F20">
-        <v>3.508843895998211</v>
+        <v>12.44603804504396</v>
       </c>
       <c r="G20">
-        <v>1.018581153352201</v>
+        <v>0.000600717010973978</v>
       </c>
       <c r="H20">
-        <v>1.838566056069183</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.698390005533767</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.01905033232321429</v>
       </c>
       <c r="K20">
-        <v>35.93097343069167</v>
+        <v>13.93932004890542</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>7.83093112803175</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.09077024154472468</v>
+        <v>0.3585576484869506</v>
       </c>
       <c r="D21">
-        <v>0.2107152765160221</v>
+        <v>1.086070247193845</v>
       </c>
       <c r="E21">
-        <v>3.737579229972837</v>
+        <v>0.2078029816208087</v>
       </c>
       <c r="F21">
-        <v>4.718113108366964</v>
+        <v>16.3604134628481</v>
       </c>
       <c r="G21">
-        <v>1.381151857647055</v>
+        <v>0.0005347547796344287</v>
       </c>
       <c r="H21">
-        <v>2.519232046226719</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>3.644274253560624</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.01563753346819308</v>
       </c>
       <c r="K21">
-        <v>42.26193977520217</v>
+        <v>17.33678263985277</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>9.690624808355466</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1136252279511822</v>
+        <v>0.4540416026756873</v>
       </c>
       <c r="D22">
-        <v>0.2796270151354294</v>
+        <v>1.472110101683427</v>
       </c>
       <c r="E22">
-        <v>4.390988706024189</v>
+        <v>0.2668370590686706</v>
       </c>
       <c r="F22">
-        <v>5.809645151632736</v>
+        <v>21.55750385977154</v>
       </c>
       <c r="G22">
-        <v>1.709945858110814</v>
+        <v>0.000461477292899561</v>
       </c>
       <c r="H22">
-        <v>3.142335810439931</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>4.500842086146747</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.01274294721313307</v>
       </c>
       <c r="K22">
-        <v>47.07913038481087</v>
+        <v>21.24133051732801</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>11.80157621358597</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1004831682841214</v>
+        <v>0.3931502612692981</v>
       </c>
       <c r="D23">
-        <v>0.2397695640472559</v>
+        <v>1.220699378360649</v>
       </c>
       <c r="E23">
-        <v>4.019047510596238</v>
+        <v>0.2286528807202473</v>
       </c>
       <c r="F23">
-        <v>5.186291937936744</v>
+        <v>18.18964258974796</v>
       </c>
       <c r="G23">
-        <v>1.522006232413247</v>
+        <v>0.0005074260950355392</v>
       </c>
       <c r="H23">
-        <v>2.785604121372572</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>4.011381327236805</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.01443090159312987</v>
       </c>
       <c r="K23">
-        <v>44.41821932930668</v>
+        <v>18.78009424339675</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>10.4748303849461</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06596943803578625</v>
+        <v>0.2790277187468178</v>
       </c>
       <c r="D24">
-        <v>0.138629906818923</v>
+        <v>0.7971017589684664</v>
       </c>
       <c r="E24">
-        <v>2.980196950872497</v>
+        <v>0.1615050058571263</v>
       </c>
       <c r="F24">
-        <v>3.492191468645274</v>
+        <v>12.39626440089251</v>
       </c>
       <c r="G24">
-        <v>1.013601323693038</v>
+        <v>0.00060163702406002</v>
       </c>
       <c r="H24">
-        <v>1.82927877664973</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.685390991392381</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.0191024470683967</v>
       </c>
       <c r="K24">
-        <v>35.83475059001842</v>
+        <v>13.89295772046782</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7.805441445817621</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04265653772997169</v>
+        <v>0.2028471875425026</v>
       </c>
       <c r="D25">
-        <v>0.07515888246131563</v>
+        <v>0.5456653492271073</v>
       </c>
       <c r="E25">
-        <v>2.184098578386696</v>
+        <v>0.1185636031703865</v>
       </c>
       <c r="F25">
-        <v>2.29727101030835</v>
+        <v>8.942925562654153</v>
       </c>
       <c r="G25">
-        <v>0.6572383982923355</v>
+        <v>0.0006725401503945275</v>
       </c>
       <c r="H25">
-        <v>1.170921369195597</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.754991412068819</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02345740213578296</v>
       </c>
       <c r="K25">
-        <v>28.06059940654109</v>
+        <v>10.42622934146951</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>5.892684292714534</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1587439007756615</v>
+        <v>0.4321776012100997</v>
       </c>
       <c r="D2">
-        <v>0.4113001669414018</v>
+        <v>0.1713305584008253</v>
       </c>
       <c r="E2">
-        <v>0.09403448782438772</v>
+        <v>0.7221141492564414</v>
       </c>
       <c r="F2">
-        <v>7.121407926851731</v>
+        <v>4.455302979527914</v>
       </c>
       <c r="G2">
-        <v>0.0007178942488471349</v>
+        <v>0.0006054518533353264</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.995692941870132</v>
       </c>
       <c r="J2">
-        <v>0.02657442641812047</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.340969855110188</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.480909159570217</v>
       </c>
       <c r="M2">
-        <v>4.736813187571173</v>
+        <v>37.68093084660245</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1324551209041829</v>
+        <v>0.3587384914662834</v>
       </c>
       <c r="D3">
-        <v>0.3352580569792138</v>
+        <v>0.09132731664628579</v>
       </c>
       <c r="E3">
-        <v>0.07944939530833039</v>
+        <v>0.587946458802449</v>
       </c>
       <c r="F3">
-        <v>6.108913751716813</v>
+        <v>3.177439820379163</v>
       </c>
       <c r="G3">
-        <v>0.0007470290940251988</v>
+        <v>0.0006531889873390177</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.043653913794884</v>
       </c>
       <c r="J3">
-        <v>0.028705365540036</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.06929552263108</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.183458163773849</v>
       </c>
       <c r="M3">
-        <v>4.030414270914861</v>
+        <v>30.81440750449406</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1174440120898623</v>
+        <v>0.3185229208350222</v>
       </c>
       <c r="D4">
-        <v>0.2932629363806711</v>
+        <v>0.06153628594132243</v>
       </c>
       <c r="E4">
-        <v>0.07111394421339412</v>
+        <v>0.517482501320444</v>
       </c>
       <c r="F4">
-        <v>5.559029992961172</v>
+        <v>2.619623019061734</v>
       </c>
       <c r="G4">
-        <v>0.0007645731691330315</v>
+        <v>0.0006790063808532024</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.646234385385597</v>
       </c>
       <c r="J4">
-        <v>0.03003549537225503</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6.333127314840141</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.031928036485397</v>
       </c>
       <c r="M4">
-        <v>3.62106467728556</v>
+        <v>27.17419320357544</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1115446927265396</v>
+        <v>0.3028955467559911</v>
       </c>
       <c r="D5">
-        <v>0.2770544745326475</v>
+        <v>0.05230494877120151</v>
       </c>
       <c r="E5">
-        <v>0.06783400871222867</v>
+        <v>0.4905744487666368</v>
       </c>
       <c r="F5">
-        <v>5.349136575822001</v>
+        <v>2.427070867004318</v>
       </c>
       <c r="G5">
-        <v>0.0007716816733056575</v>
+        <v>0.000689035243239634</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.512881645702237</v>
       </c>
       <c r="J5">
-        <v>0.03058429321864331</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.041761157355211</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.974855950194609</v>
       </c>
       <c r="M5">
-        <v>3.458978311159825</v>
+        <v>25.77836991252138</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1105766717290066</v>
+        <v>0.3003378914565076</v>
       </c>
       <c r="D6">
-        <v>0.2744111239494913</v>
+        <v>0.05091318653138188</v>
       </c>
       <c r="E6">
-        <v>0.06729550132457263</v>
+        <v>0.4861938531968519</v>
       </c>
       <c r="F6">
-        <v>5.315047954710337</v>
+        <v>2.396797421542914</v>
       </c>
       <c r="G6">
-        <v>0.0007728606743684092</v>
+        <v>0.0006906778431281552</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.492135433921149</v>
       </c>
       <c r="J6">
-        <v>0.03067586018044821</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>5.993838430676902</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.9656049588503492</v>
       </c>
       <c r="M6">
-        <v>3.432315545071617</v>
+        <v>25.55083865805307</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1173636441846071</v>
+        <v>0.3183094996363138</v>
       </c>
       <c r="D7">
-        <v>0.2930409866138746</v>
+        <v>0.06140167531006568</v>
       </c>
       <c r="E7">
-        <v>0.07106928022779258</v>
+        <v>0.5171133331191058</v>
       </c>
       <c r="F7">
-        <v>5.556146168309937</v>
+        <v>2.616904645132109</v>
       </c>
       <c r="G7">
-        <v>0.0007646691508944592</v>
+        <v>0.0006791432884732477</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.644336021343193</v>
       </c>
       <c r="J7">
-        <v>0.03004286783095367</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>6.329165827964374</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.031142125887555</v>
       </c>
       <c r="M7">
-        <v>3.618861161765963</v>
+        <v>27.15506411987593</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1493982322330396</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D8">
-        <v>0.383911511045298</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E8">
-        <v>0.08884926123407411</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F8">
-        <v>6.754678018483247</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G8">
-        <v>0.0007280437496857852</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J8">
-        <v>0.02730557673797129</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>7.89140606744354</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M8">
-        <v>4.487201078890351</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2258498878871364</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D9">
-        <v>0.6190201321980453</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E9">
-        <v>0.1314309519485057</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F9">
-        <v>9.947197766149486</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G9">
-        <v>0.0006502694395717813</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J9">
-        <v>0.02201939732956859</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>11.49072420500553</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M9">
-        <v>6.481326151454539</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3032862396416931</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D10">
-        <v>0.8823139746289144</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E10">
-        <v>0.1754277983599906</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F10">
-        <v>13.56861680065236</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G10">
-        <v>0.0005805719319319753</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J10">
-        <v>0.01793908218788332</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>14.96211661099923</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M10">
-        <v>8.392552272522522</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3521974123980698</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D11">
-        <v>1.061925729201647</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E11">
-        <v>0.2040235829922814</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F11">
-        <v>16.03085340570721</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G11">
-        <v>0.0005398862190241827</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J11">
-        <v>0.01587869433684741</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>17.06783234720106</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M11">
-        <v>9.544066033643617</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3755602739954043</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D12">
-        <v>1.151534639516399</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E12">
-        <v>0.2179859032635356</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F12">
-        <v>17.25177710874391</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G12">
-        <v>0.0005212028359478146</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J12">
-        <v>0.01502234846455686</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>18.0502902090999</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M12">
-        <v>10.07880217418881</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3701893671470344</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D13">
-        <v>1.130709372259503</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E13">
-        <v>0.2147562823330667</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F13">
-        <v>16.96858531230453</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G13">
-        <v>0.0005254581392490416</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J13">
-        <v>0.01521205169884254</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>17.82576145121635</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M13">
-        <v>9.95675135313536</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3539832415268194</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D14">
-        <v>1.068686319817658</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E14">
-        <v>0.2050831973239013</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F14">
-        <v>16.12317303968553</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G14">
-        <v>0.000538441923395977</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J14">
-        <v>0.01581037156989584</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>17.14346095761664</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M14">
-        <v>9.58529102238316</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3448671092344711</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D15">
-        <v>1.034327629389594</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E15">
-        <v>0.1996866417095262</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F15">
-        <v>15.65366899130282</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G15">
-        <v>0.0005458435984039406</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J15">
-        <v>0.01616414533305832</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>16.75647655373521</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M15">
-        <v>9.374243574829734</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3005145611412559</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D16">
-        <v>0.8724501728213454</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E16">
-        <v>0.1738292976181981</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F16">
-        <v>13.43299272618515</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G16">
-        <v>0.0005829470112238101</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J16">
-        <v>0.01806708234968557</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>14.84079539286199</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M16">
-        <v>8.326007177764097</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2777692714573448</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D17">
-        <v>0.7927497883929391</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E17">
-        <v>0.1607866956953572</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F17">
-        <v>12.33636092967811</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G17">
-        <v>0.0006027474656920634</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J17">
-        <v>0.01916550497224634</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>13.83704110346434</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M17">
-        <v>7.774695331904638</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2657476476302776</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D18">
-        <v>0.7515146817571292</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E18">
-        <v>0.1539427876586075</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F18">
-        <v>11.76875568848465</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G18">
-        <v>0.0006134478709098623</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J18">
-        <v>0.01978182279796137</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>13.30062266038763</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M18">
-        <v>7.479549016786507</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2618259687880737</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D19">
-        <v>0.738195076095792</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E19">
-        <v>0.1517168924545516</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F19">
-        <v>11.58542670688666</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G19">
-        <v>0.0006169757788627464</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J19">
-        <v>0.01998843578397391</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>13.12474484904058</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M19">
-        <v>7.382703886227318</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2800719040878334</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D20">
-        <v>0.8007178735362857</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E20">
-        <v>0.1621012970655968</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F20">
-        <v>12.44603804504396</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G20">
-        <v>0.000600717010973978</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J20">
-        <v>0.01905033232321429</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>13.93932004890542</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M20">
-        <v>7.83093112803175</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3585576484869506</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D21">
-        <v>1.086070247193845</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E21">
-        <v>0.2078029816208087</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F21">
-        <v>16.3604134628481</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G21">
-        <v>0.0005347547796344287</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J21">
-        <v>0.01563753346819308</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>17.33678263985277</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M21">
-        <v>9.690624808355466</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4540416026756873</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D22">
-        <v>1.472110101683427</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E22">
-        <v>0.2668370590686706</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F22">
-        <v>21.55750385977154</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G22">
-        <v>0.000461477292899561</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J22">
-        <v>0.01274294721313307</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>21.24133051732801</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M22">
-        <v>11.80157621358597</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3931502612692981</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D23">
-        <v>1.220699378360649</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E23">
-        <v>0.2286528807202473</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F23">
-        <v>18.18964258974796</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G23">
-        <v>0.0005074260950355392</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J23">
-        <v>0.01443090159312987</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>18.78009424339675</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M23">
-        <v>10.4748303849461</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2790277187468178</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D24">
-        <v>0.7971017589684664</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E24">
-        <v>0.1615050058571263</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F24">
-        <v>12.39626440089251</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G24">
-        <v>0.00060163702406002</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J24">
-        <v>0.0191024470683967</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>13.89295772046782</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M24">
-        <v>7.805441445817621</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2028471875425026</v>
+        <v>0.4054395565765674</v>
       </c>
       <c r="D25">
-        <v>0.5456653492271073</v>
+        <v>0.1379786319921124</v>
       </c>
       <c r="E25">
-        <v>0.1185636031703865</v>
+        <v>0.6723289986707712</v>
       </c>
       <c r="F25">
-        <v>8.942925562654153</v>
+        <v>3.947782337191711</v>
       </c>
       <c r="G25">
-        <v>0.0006725401503945275</v>
+        <v>0.0006229783769224173</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.612107821956684</v>
       </c>
       <c r="J25">
-        <v>0.02345740213578296</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>10.42622934146951</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.369099170568632</v>
       </c>
       <c r="M25">
-        <v>5.892684292714534</v>
+        <v>35.14346090865359</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4321776012100997</v>
+        <v>0.1211596285783969</v>
       </c>
       <c r="D2">
-        <v>0.1713305584008253</v>
+        <v>0.17341228526778</v>
       </c>
       <c r="E2">
-        <v>0.7221141492564414</v>
+        <v>0.1958613402183147</v>
       </c>
       <c r="F2">
-        <v>4.455302979527914</v>
+        <v>2.973650978365868</v>
       </c>
       <c r="G2">
-        <v>0.0006054518533353264</v>
+        <v>0.002581764597226413</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.995692941870132</v>
+        <v>2.431055493695368</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.480909159570217</v>
+        <v>0.3751323624953784</v>
       </c>
       <c r="M2">
-        <v>37.68093084660245</v>
+        <v>11.40542490509586</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3587384914662834</v>
+        <v>0.1063735221813147</v>
       </c>
       <c r="D3">
-        <v>0.09132731664628579</v>
+        <v>0.1855300351781324</v>
       </c>
       <c r="E3">
-        <v>0.587946458802449</v>
+        <v>0.1724891289907404</v>
       </c>
       <c r="F3">
-        <v>3.177439820379163</v>
+        <v>3.033923446151277</v>
       </c>
       <c r="G3">
-        <v>0.0006531889873390177</v>
+        <v>0.002596801957842243</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.043653913794884</v>
+        <v>2.513062227762603</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.183458163773849</v>
+        <v>0.3303517992685272</v>
       </c>
       <c r="M3">
-        <v>30.81440750449406</v>
+        <v>10.15005367726991</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3185229208350222</v>
+        <v>0.09728644906013528</v>
       </c>
       <c r="D4">
-        <v>0.06153628594132243</v>
+        <v>0.1935263628975861</v>
       </c>
       <c r="E4">
-        <v>0.517482501320444</v>
+        <v>0.1581723004550639</v>
       </c>
       <c r="F4">
-        <v>2.619623019061734</v>
+        <v>3.077850035676036</v>
       </c>
       <c r="G4">
-        <v>0.0006790063808532024</v>
+        <v>0.002606409777363483</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.646234385385597</v>
+        <v>2.569372736765075</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.031928036485397</v>
+        <v>0.3030010355862771</v>
       </c>
       <c r="M4">
-        <v>27.17419320357544</v>
+        <v>9.378925818445964</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3028955467559911</v>
+        <v>0.09358044754100092</v>
       </c>
       <c r="D5">
-        <v>0.05230494877120151</v>
+        <v>0.1969213881353014</v>
       </c>
       <c r="E5">
-        <v>0.4905744487666368</v>
+        <v>0.1523449093145288</v>
       </c>
       <c r="F5">
-        <v>2.427070867004318</v>
+        <v>3.097446916794922</v>
       </c>
       <c r="G5">
-        <v>0.000689035243239634</v>
+        <v>0.002610420226121106</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.512881645702237</v>
+        <v>2.593782646694891</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.974855950194609</v>
+        <v>0.2918873618153555</v>
       </c>
       <c r="M5">
-        <v>25.77836991252138</v>
+        <v>9.064519221373985</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3003378914565076</v>
+        <v>0.09296486719432551</v>
       </c>
       <c r="D6">
-        <v>0.05091318653138188</v>
+        <v>0.1974932753755105</v>
       </c>
       <c r="E6">
-        <v>0.4861938531968519</v>
+        <v>0.1513776420958806</v>
       </c>
       <c r="F6">
-        <v>2.396797421542914</v>
+        <v>3.100802180968742</v>
       </c>
       <c r="G6">
-        <v>0.0006906778431281552</v>
+        <v>0.002611091933801545</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.492135433921149</v>
+        <v>2.597923239642142</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.9656049588503492</v>
+        <v>0.2900437545594343</v>
       </c>
       <c r="M6">
-        <v>25.55083865805307</v>
+        <v>9.012299908315981</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3183094996363138</v>
+        <v>0.09723648163401322</v>
       </c>
       <c r="D7">
-        <v>0.06140167531006568</v>
+        <v>0.1935716012269744</v>
       </c>
       <c r="E7">
-        <v>0.5171133331191058</v>
+        <v>0.1580936846566985</v>
       </c>
       <c r="F7">
-        <v>2.616904645132109</v>
+        <v>3.078107513597033</v>
       </c>
       <c r="G7">
-        <v>0.0006791432884732477</v>
+        <v>0.00260646347707098</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.644336021343193</v>
+        <v>2.569696059825063</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.031142125887555</v>
+        <v>0.3028510287541906</v>
       </c>
       <c r="M7">
-        <v>27.15506411987593</v>
+        <v>9.374686398398126</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4054395565765674</v>
+        <v>0.1160625799276431</v>
       </c>
       <c r="D8">
-        <v>0.1379786319921124</v>
+        <v>0.1774730424506572</v>
       </c>
       <c r="E8">
-        <v>0.6723289986707712</v>
+        <v>0.1877945315215754</v>
       </c>
       <c r="F8">
-        <v>3.947782337191711</v>
+        <v>2.992970326919462</v>
       </c>
       <c r="G8">
-        <v>0.0006229783769224173</v>
+        <v>0.002586872258807113</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.612107821956684</v>
+        <v>2.45807325760876</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.369099170568632</v>
+        <v>0.3596592286479279</v>
       </c>
       <c r="M8">
-        <v>35.14346090865359</v>
+        <v>10.97258728525725</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4054395565765674</v>
+        <v>0.1529569503083792</v>
       </c>
       <c r="D9">
-        <v>0.1379786319921124</v>
+        <v>0.1504710758439103</v>
       </c>
       <c r="E9">
-        <v>0.6723289986707712</v>
+        <v>0.2463913182318578</v>
       </c>
       <c r="F9">
-        <v>3.947782337191711</v>
+        <v>2.882939245116233</v>
       </c>
       <c r="G9">
-        <v>0.0006229783769224173</v>
+        <v>0.002551383675795679</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.612107821956684</v>
+        <v>2.288096441087376</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.369099170568632</v>
+        <v>0.4724293527338261</v>
       </c>
       <c r="M9">
-        <v>35.14346090865359</v>
+        <v>14.10777249552507</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4054395565765674</v>
+        <v>0.180114723872606</v>
       </c>
       <c r="D10">
-        <v>0.1379786319921124</v>
+        <v>0.1336412050860289</v>
       </c>
       <c r="E10">
-        <v>0.6723289986707712</v>
+        <v>0.2897915123188994</v>
       </c>
       <c r="F10">
-        <v>3.947782337191711</v>
+        <v>2.839714507182833</v>
       </c>
       <c r="G10">
-        <v>0.0006229783769224173</v>
+        <v>0.002527031496223575</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.612107821956684</v>
+        <v>2.195393085004895</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.369099170568632</v>
+        <v>0.5564588087297864</v>
       </c>
       <c r="M10">
-        <v>35.14346090865359</v>
+        <v>16.41892212857704</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4054395565765674</v>
+        <v>0.1924965132400587</v>
       </c>
       <c r="D11">
-        <v>0.1379786319921124</v>
+        <v>0.1266901633714355</v>
       </c>
       <c r="E11">
-        <v>0.6723289986707712</v>
+        <v>0.3096441272773944</v>
       </c>
       <c r="F11">
-        <v>3.947782337191711</v>
+        <v>2.828891032560819</v>
       </c>
       <c r="G11">
-        <v>0.0006229783769224173</v>
+        <v>0.00251631189836643</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.612107821956684</v>
+        <v>2.16075194204484</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.369099170568632</v>
+        <v>0.595025503728067</v>
       </c>
       <c r="M11">
-        <v>35.14346090865359</v>
+        <v>17.47364262253376</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4054395565765674</v>
+        <v>0.1971905010301782</v>
       </c>
       <c r="D12">
-        <v>0.1379786319921124</v>
+        <v>0.1241639806812387</v>
       </c>
       <c r="E12">
-        <v>0.6723289986707712</v>
+        <v>0.317180475682548</v>
       </c>
       <c r="F12">
-        <v>3.947782337191711</v>
+        <v>2.826122660394788</v>
       </c>
       <c r="G12">
-        <v>0.0006229783769224173</v>
+        <v>0.002512302926399024</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.612107821956684</v>
+        <v>2.148765026706513</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.369099170568632</v>
+        <v>0.6096862445621127</v>
       </c>
       <c r="M12">
-        <v>35.14346090865359</v>
+        <v>17.87366625310892</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4054395565765674</v>
+        <v>0.1961793104578646</v>
       </c>
       <c r="D13">
-        <v>0.1379786319921124</v>
+        <v>0.1247032468490374</v>
       </c>
       <c r="E13">
-        <v>0.6723289986707712</v>
+        <v>0.3155565136821963</v>
       </c>
       <c r="F13">
-        <v>3.947782337191711</v>
+        <v>2.826658741322802</v>
       </c>
       <c r="G13">
-        <v>0.0006229783769224173</v>
+        <v>0.00251316411298635</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.612107821956684</v>
+        <v>2.15129553123603</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.369099170568632</v>
+        <v>0.6065261620677518</v>
       </c>
       <c r="M13">
-        <v>35.14346090865359</v>
+        <v>17.78748391329754</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4054395565765674</v>
+        <v>0.1928825769476816</v>
       </c>
       <c r="D14">
-        <v>0.1379786319921124</v>
+        <v>0.126480180282158</v>
       </c>
       <c r="E14">
-        <v>0.6723289986707712</v>
+        <v>0.3102637575071299</v>
       </c>
       <c r="F14">
-        <v>3.947782337191711</v>
+        <v>2.828636267174602</v>
       </c>
       <c r="G14">
-        <v>0.0006229783769224173</v>
+        <v>0.002515981076643488</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.612107821956684</v>
+        <v>2.159742820982601</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.369099170568632</v>
+        <v>0.5962304780404111</v>
       </c>
       <c r="M14">
-        <v>35.14346090865359</v>
+        <v>17.50653946318283</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4054395565765674</v>
+        <v>0.1908639595297075</v>
       </c>
       <c r="D15">
-        <v>0.1379786319921124</v>
+        <v>0.1275825536595718</v>
       </c>
       <c r="E15">
-        <v>0.6723289986707712</v>
+        <v>0.30702430095252</v>
       </c>
       <c r="F15">
-        <v>3.947782337191711</v>
+        <v>2.830022603158085</v>
       </c>
       <c r="G15">
-        <v>0.0006229783769224173</v>
+        <v>0.002517713062635722</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.612107821956684</v>
+        <v>2.165065782424676</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.369099170568632</v>
+        <v>0.589931642062254</v>
       </c>
       <c r="M15">
-        <v>35.14346090865359</v>
+        <v>17.33453846249574</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4054395565765674</v>
+        <v>0.1793062094352535</v>
       </c>
       <c r="D16">
-        <v>0.1379786319921124</v>
+        <v>0.1341100494352787</v>
       </c>
       <c r="E16">
-        <v>0.6723289986707712</v>
+        <v>0.2884965399206578</v>
       </c>
       <c r="F16">
-        <v>3.947782337191711</v>
+        <v>2.840604706328946</v>
       </c>
       <c r="G16">
-        <v>0.0006229783769224173</v>
+        <v>0.00252773915474935</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.612107821956684</v>
+        <v>2.197812545523618</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.369099170568632</v>
+        <v>0.5539458620489199</v>
       </c>
       <c r="M16">
-        <v>35.14346090865359</v>
+        <v>16.3500731005625</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4054395565765674</v>
+        <v>0.1722238693103009</v>
       </c>
       <c r="D17">
-        <v>0.1379786319921124</v>
+        <v>0.1382982425919437</v>
       </c>
       <c r="E17">
-        <v>0.6723289986707712</v>
+        <v>0.2771603796829396</v>
       </c>
       <c r="F17">
-        <v>3.947782337191711</v>
+        <v>2.849401633014452</v>
       </c>
       <c r="G17">
-        <v>0.0006229783769224173</v>
+        <v>0.002533980765314414</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.612107821956684</v>
+        <v>2.219863708073987</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.369099170568632</v>
+        <v>0.5319621663104783</v>
       </c>
       <c r="M17">
-        <v>35.14346090865359</v>
+        <v>15.74709370284637</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4054395565765674</v>
+        <v>0.1681528070776039</v>
       </c>
       <c r="D18">
-        <v>0.1379786319921124</v>
+        <v>0.1407732403086754</v>
       </c>
       <c r="E18">
-        <v>0.6723289986707712</v>
+        <v>0.2706502576705532</v>
       </c>
       <c r="F18">
-        <v>3.947782337191711</v>
+        <v>2.855289709981406</v>
       </c>
       <c r="G18">
-        <v>0.0006229783769224173</v>
+        <v>0.002537604578664688</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.612107821956684</v>
+        <v>2.233252695480601</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.369099170568632</v>
+        <v>0.5193493767601183</v>
       </c>
       <c r="M18">
-        <v>35.14346090865359</v>
+        <v>15.40058378096063</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4054395565765674</v>
+        <v>0.166774808559893</v>
       </c>
       <c r="D19">
-        <v>0.1379786319921124</v>
+        <v>0.1416224402009263</v>
       </c>
       <c r="E19">
-        <v>0.6723289986707712</v>
+        <v>0.2684477010445505</v>
       </c>
       <c r="F19">
-        <v>3.947782337191711</v>
+        <v>2.857423824709144</v>
       </c>
       <c r="G19">
-        <v>0.0006229783769224173</v>
+        <v>0.002538837381787357</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.612107821956684</v>
+        <v>2.237905763010346</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.369099170568632</v>
+        <v>0.5150841262566246</v>
       </c>
       <c r="M19">
-        <v>35.14346090865359</v>
+        <v>15.28331028039781</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4054395565765674</v>
+        <v>0.1729775273033454</v>
       </c>
       <c r="D20">
-        <v>0.1379786319921124</v>
+        <v>0.1378455324516636</v>
       </c>
       <c r="E20">
-        <v>0.6723289986707712</v>
+        <v>0.2783660643707861</v>
       </c>
       <c r="F20">
-        <v>3.947782337191711</v>
+        <v>2.84837903908479</v>
       </c>
       <c r="G20">
-        <v>0.0006229783769224173</v>
+        <v>0.002533312845012015</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.612107821956684</v>
+        <v>2.217442942043618</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.369099170568632</v>
+        <v>0.5342990415406348</v>
       </c>
       <c r="M20">
-        <v>35.14346090865359</v>
+        <v>15.81124904863577</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4054395565765674</v>
+        <v>0.1938507535137148</v>
       </c>
       <c r="D21">
-        <v>0.1379786319921124</v>
+        <v>0.1259553359408798</v>
       </c>
       <c r="E21">
-        <v>0.6723289986707712</v>
+        <v>0.3118178399497111</v>
       </c>
       <c r="F21">
-        <v>3.947782337191711</v>
+        <v>2.828018830911702</v>
       </c>
       <c r="G21">
-        <v>0.0006229783769224173</v>
+        <v>0.002515152311089992</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.612107821956684</v>
+        <v>2.15723055782469</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.369099170568632</v>
+        <v>0.5992529790289893</v>
       </c>
       <c r="M21">
-        <v>35.14346090865359</v>
+        <v>17.58904155658672</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4054395565765674</v>
+        <v>0.2075240217535281</v>
       </c>
       <c r="D22">
-        <v>0.1379786319921124</v>
+        <v>0.1188047586989782</v>
       </c>
       <c r="E22">
-        <v>0.6723289986707712</v>
+        <v>0.3337903735673251</v>
       </c>
       <c r="F22">
-        <v>3.947782337191711</v>
+        <v>2.822495648958125</v>
       </c>
       <c r="G22">
-        <v>0.0006229783769224173</v>
+        <v>0.002503575969158336</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.612107821956684</v>
+        <v>2.124494435243619</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.369099170568632</v>
+        <v>0.6420365209879151</v>
       </c>
       <c r="M22">
-        <v>35.14346090865359</v>
+        <v>18.75464124532937</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4054395565765674</v>
+        <v>0.200223011102338</v>
       </c>
       <c r="D23">
-        <v>0.1379786319921124</v>
+        <v>0.1225627862583352</v>
       </c>
       <c r="E23">
-        <v>0.6723289986707712</v>
+        <v>0.3220521696799921</v>
       </c>
       <c r="F23">
-        <v>3.947782337191711</v>
+        <v>2.82471093805276</v>
       </c>
       <c r="G23">
-        <v>0.0006229783769224173</v>
+        <v>0.00250972812538067</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.612107821956684</v>
+        <v>2.141344366277309</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.369099170568632</v>
+        <v>0.6191691583765362</v>
       </c>
       <c r="M23">
-        <v>35.14346090865359</v>
+        <v>18.13215016922231</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4054395565765674</v>
+        <v>0.1726367965369207</v>
       </c>
       <c r="D24">
-        <v>0.1379786319921124</v>
+        <v>0.1380499938991875</v>
       </c>
       <c r="E24">
-        <v>0.6723289986707712</v>
+        <v>0.2778209521467261</v>
       </c>
       <c r="F24">
-        <v>3.947782337191711</v>
+        <v>2.848838771080636</v>
       </c>
       <c r="G24">
-        <v>0.0006229783769224173</v>
+        <v>0.002533614701277252</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.612107821956684</v>
+        <v>2.218535157873376</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.369099170568632</v>
+        <v>0.5332424600276227</v>
       </c>
       <c r="M24">
-        <v>35.14346090865359</v>
+        <v>15.78224395700471</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4054395565765674</v>
+        <v>0.1429720389769784</v>
       </c>
       <c r="D25">
-        <v>0.1379786319921124</v>
+        <v>0.1572643941632847</v>
       </c>
       <c r="E25">
-        <v>0.6723289986707712</v>
+        <v>0.2304883852180666</v>
       </c>
       <c r="F25">
-        <v>3.947782337191711</v>
+        <v>2.906318742587388</v>
       </c>
       <c r="G25">
-        <v>0.0006229783769224173</v>
+        <v>0.002560677150247992</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.612107821956684</v>
+        <v>2.328605933953483</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.369099170568632</v>
+        <v>0.441741799330174</v>
       </c>
       <c r="M25">
-        <v>35.14346090865359</v>
+        <v>13.25878177220386</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1211596285783969</v>
+        <v>0.4321776012094745</v>
       </c>
       <c r="D2">
-        <v>0.17341228526778</v>
+        <v>0.1713305584007045</v>
       </c>
       <c r="E2">
-        <v>0.1958613402183147</v>
+        <v>0.7221141492564414</v>
       </c>
       <c r="F2">
-        <v>2.973650978365868</v>
+        <v>4.455302979527801</v>
       </c>
       <c r="G2">
-        <v>0.002581764597226413</v>
+        <v>0.0006054518532787591</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.431055493695368</v>
+        <v>2.995692941870061</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3751323624953784</v>
+        <v>1.48090915957016</v>
       </c>
       <c r="M2">
-        <v>11.40542490509586</v>
+        <v>37.68093084660234</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1063735221813147</v>
+        <v>0.3587384914660561</v>
       </c>
       <c r="D3">
-        <v>0.1855300351781324</v>
+        <v>0.091327316646165</v>
       </c>
       <c r="E3">
-        <v>0.1724891289907404</v>
+        <v>0.5879464588024135</v>
       </c>
       <c r="F3">
-        <v>3.033923446151277</v>
+        <v>3.177439820379163</v>
       </c>
       <c r="G3">
-        <v>0.002596801957842243</v>
+        <v>0.0006531889873378926</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.513062227762603</v>
+        <v>2.04365391379487</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3303517992685272</v>
+        <v>1.183458163773878</v>
       </c>
       <c r="M3">
-        <v>10.15005367726991</v>
+        <v>30.814407504494</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.09728644906013528</v>
+        <v>0.3185229208351359</v>
       </c>
       <c r="D4">
-        <v>0.1935263628975861</v>
+        <v>0.06153628594122296</v>
       </c>
       <c r="E4">
-        <v>0.1581723004550639</v>
+        <v>0.517482501320444</v>
       </c>
       <c r="F4">
-        <v>3.077850035676036</v>
+        <v>2.619623019061692</v>
       </c>
       <c r="G4">
-        <v>0.002606409777363483</v>
+        <v>0.0006790063808564215</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.569372736765075</v>
+        <v>1.646234385385554</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3030010355862771</v>
+        <v>1.03192803648534</v>
       </c>
       <c r="M4">
-        <v>9.378925818445964</v>
+        <v>27.17419320357538</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09358044754100092</v>
+        <v>0.3028955467561047</v>
       </c>
       <c r="D5">
-        <v>0.1969213881353014</v>
+        <v>0.05230494877130099</v>
       </c>
       <c r="E5">
-        <v>0.1523449093145288</v>
+        <v>0.4905744487666297</v>
       </c>
       <c r="F5">
-        <v>3.097446916794922</v>
+        <v>2.427070867004375</v>
       </c>
       <c r="G5">
-        <v>0.002610420226121106</v>
+        <v>0.0006890352431859333</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.593782646694891</v>
+        <v>1.512881645702251</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2918873618153555</v>
+        <v>0.9748559501946943</v>
       </c>
       <c r="M5">
-        <v>9.064519221373985</v>
+        <v>25.77836991252155</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09296486719432551</v>
+        <v>0.3003378914565076</v>
       </c>
       <c r="D6">
-        <v>0.1974932753755105</v>
+        <v>0.05091318653148136</v>
       </c>
       <c r="E6">
-        <v>0.1513776420958806</v>
+        <v>0.4861938531968519</v>
       </c>
       <c r="F6">
-        <v>3.100802180968742</v>
+        <v>2.396797421542942</v>
       </c>
       <c r="G6">
-        <v>0.002611091933801545</v>
+        <v>0.0006906778431812209</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.597923239642142</v>
+        <v>1.492135433921177</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2900437545594343</v>
+        <v>0.9656049588503208</v>
       </c>
       <c r="M6">
-        <v>9.012299908315981</v>
+        <v>25.55083865805318</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.09723648163401322</v>
+        <v>0.3183094996363423</v>
       </c>
       <c r="D7">
-        <v>0.1935716012269744</v>
+        <v>0.06140167530987384</v>
       </c>
       <c r="E7">
-        <v>0.1580936846566985</v>
+        <v>0.51711333311912</v>
       </c>
       <c r="F7">
-        <v>3.078107513597033</v>
+        <v>2.616904645132053</v>
       </c>
       <c r="G7">
-        <v>0.00260646347707098</v>
+        <v>0.0006791432884250317</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.569696059825063</v>
+        <v>1.64433602134315</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3028510287541906</v>
+        <v>1.03114212588747</v>
       </c>
       <c r="M7">
-        <v>9.374686398398126</v>
+        <v>27.15506411987593</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1160625799276431</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D8">
-        <v>0.1774730424506572</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E8">
-        <v>0.1877945315215754</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F8">
-        <v>2.992970326919462</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G8">
-        <v>0.002586872258807113</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.45807325760876</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3596592286479279</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M8">
-        <v>10.97258728525725</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1529569503083792</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D9">
-        <v>0.1504710758439103</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E9">
-        <v>0.2463913182318578</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F9">
-        <v>2.882939245116233</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G9">
-        <v>0.002551383675795679</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.288096441087376</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4724293527338261</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M9">
-        <v>14.10777249552507</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.180114723872606</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D10">
-        <v>0.1336412050860289</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E10">
-        <v>0.2897915123188994</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F10">
-        <v>2.839714507182833</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G10">
-        <v>0.002527031496223575</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.195393085004895</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5564588087297864</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M10">
-        <v>16.41892212857704</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1924965132400587</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D11">
-        <v>0.1266901633714355</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E11">
-        <v>0.3096441272773944</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F11">
-        <v>2.828891032560819</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G11">
-        <v>0.00251631189836643</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.16075194204484</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.595025503728067</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M11">
-        <v>17.47364262253376</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1971905010301782</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D12">
-        <v>0.1241639806812387</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E12">
-        <v>0.317180475682548</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F12">
-        <v>2.826122660394788</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G12">
-        <v>0.002512302926399024</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.148765026706513</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6096862445621127</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M12">
-        <v>17.87366625310892</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1961793104578646</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D13">
-        <v>0.1247032468490374</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E13">
-        <v>0.3155565136821963</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F13">
-        <v>2.826658741322802</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G13">
-        <v>0.00251316411298635</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.15129553123603</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6065261620677518</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M13">
-        <v>17.78748391329754</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1928825769476816</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D14">
-        <v>0.126480180282158</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E14">
-        <v>0.3102637575071299</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F14">
-        <v>2.828636267174602</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G14">
-        <v>0.002515981076643488</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.159742820982601</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5962304780404111</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M14">
-        <v>17.50653946318283</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1908639595297075</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D15">
-        <v>0.1275825536595718</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E15">
-        <v>0.30702430095252</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F15">
-        <v>2.830022603158085</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G15">
-        <v>0.002517713062635722</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.165065782424676</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.589931642062254</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M15">
-        <v>17.33453846249574</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1793062094352535</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D16">
-        <v>0.1341100494352787</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E16">
-        <v>0.2884965399206578</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F16">
-        <v>2.840604706328946</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G16">
-        <v>0.00252773915474935</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.197812545523618</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5539458620489199</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M16">
-        <v>16.3500731005625</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1722238693103009</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D17">
-        <v>0.1382982425919437</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E17">
-        <v>0.2771603796829396</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F17">
-        <v>2.849401633014452</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G17">
-        <v>0.002533980765314414</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.219863708073987</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5319621663104783</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M17">
-        <v>15.74709370284637</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1681528070776039</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D18">
-        <v>0.1407732403086754</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E18">
-        <v>0.2706502576705532</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F18">
-        <v>2.855289709981406</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G18">
-        <v>0.002537604578664688</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.233252695480601</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5193493767601183</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M18">
-        <v>15.40058378096063</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.166774808559893</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D19">
-        <v>0.1416224402009263</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E19">
-        <v>0.2684477010445505</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F19">
-        <v>2.857423824709144</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G19">
-        <v>0.002538837381787357</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.237905763010346</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5150841262566246</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M19">
-        <v>15.28331028039781</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1729775273033454</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D20">
-        <v>0.1378455324516636</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E20">
-        <v>0.2783660643707861</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F20">
-        <v>2.84837903908479</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G20">
-        <v>0.002533312845012015</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.217442942043618</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5342990415406348</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M20">
-        <v>15.81124904863577</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1938507535137148</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D21">
-        <v>0.1259553359408798</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E21">
-        <v>0.3118178399497111</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F21">
-        <v>2.828018830911702</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G21">
-        <v>0.002515152311089992</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.15723055782469</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5992529790289893</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M21">
-        <v>17.58904155658672</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2075240217535281</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D22">
-        <v>0.1188047586989782</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E22">
-        <v>0.3337903735673251</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F22">
-        <v>2.822495648958125</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G22">
-        <v>0.002503575969158336</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.124494435243619</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6420365209879151</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M22">
-        <v>18.75464124532937</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.200223011102338</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D23">
-        <v>0.1225627862583352</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E23">
-        <v>0.3220521696799921</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F23">
-        <v>2.82471093805276</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G23">
-        <v>0.00250972812538067</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.141344366277309</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6191691583765362</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M23">
-        <v>18.13215016922231</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1726367965369207</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D24">
-        <v>0.1380499938991875</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E24">
-        <v>0.2778209521467261</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F24">
-        <v>2.848838771080636</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G24">
-        <v>0.002533614701277252</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.218535157873376</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5332424600276227</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M24">
-        <v>15.78224395700471</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1429720389769784</v>
+        <v>0.4054395565770506</v>
       </c>
       <c r="D25">
-        <v>0.1572643941632847</v>
+        <v>0.1379786319920058</v>
       </c>
       <c r="E25">
-        <v>0.2304883852180666</v>
+        <v>0.6723289986708139</v>
       </c>
       <c r="F25">
-        <v>2.906318742587388</v>
+        <v>3.947782337191683</v>
       </c>
       <c r="G25">
-        <v>0.002560677150247992</v>
+        <v>0.0006229783768151673</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.328605933953483</v>
+        <v>2.612107821956656</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.441741799330174</v>
+        <v>1.369099170568546</v>
       </c>
       <c r="M25">
-        <v>13.25878177220386</v>
+        <v>35.14346090865342</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4321776012094745</v>
+        <v>0.0324784500986226</v>
       </c>
       <c r="D2">
-        <v>0.1713305584007045</v>
+        <v>0.07742498587358426</v>
       </c>
       <c r="E2">
-        <v>0.7221141492564414</v>
+        <v>0.06732634459780584</v>
       </c>
       <c r="F2">
-        <v>4.455302979527801</v>
+        <v>1.056416119381026</v>
       </c>
       <c r="G2">
-        <v>0.0006054518532787591</v>
+        <v>0.7748161583076154</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003259839840494494</v>
       </c>
       <c r="I2">
-        <v>2.995692941870061</v>
+        <v>0.0004571794671153206</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5560161938468156</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6623078594871643</v>
       </c>
       <c r="L2">
-        <v>1.48090915957016</v>
+        <v>0.08193072496111498</v>
       </c>
       <c r="M2">
-        <v>37.68093084660234</v>
+        <v>3.581578532240655</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.7838028161886896</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3587384914660561</v>
+        <v>0.02827856711240884</v>
       </c>
       <c r="D3">
-        <v>0.091327316646165</v>
+        <v>0.06899477218477301</v>
       </c>
       <c r="E3">
-        <v>0.5879464588024135</v>
+        <v>0.06114680156839647</v>
       </c>
       <c r="F3">
-        <v>3.177439820379163</v>
+        <v>1.005020076921348</v>
       </c>
       <c r="G3">
-        <v>0.0006531889873378926</v>
+        <v>0.7354410034783143</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.005452015715415592</v>
       </c>
       <c r="I3">
-        <v>2.04365391379487</v>
+        <v>0.0006435284095873683</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5434669582905514</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6276564546438408</v>
       </c>
       <c r="L3">
-        <v>1.183458163773878</v>
+        <v>0.07537493937740791</v>
       </c>
       <c r="M3">
-        <v>30.814407504494</v>
+        <v>3.118023259122197</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6834361351721228</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3185229208351359</v>
+        <v>0.02568778213174028</v>
       </c>
       <c r="D4">
-        <v>0.06153628594122296</v>
+        <v>0.06387411744226057</v>
       </c>
       <c r="E4">
-        <v>0.517482501320444</v>
+        <v>0.0573625290211357</v>
       </c>
       <c r="F4">
-        <v>2.619623019061692</v>
+        <v>0.9741665548162715</v>
       </c>
       <c r="G4">
-        <v>0.0006790063808564215</v>
+        <v>0.7119108073238465</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.007133331366859064</v>
       </c>
       <c r="I4">
-        <v>1.646234385385554</v>
+        <v>0.001154980015276585</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5361746472449909</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6066342609729531</v>
       </c>
       <c r="L4">
-        <v>1.03192803648534</v>
+        <v>0.07132802942735239</v>
       </c>
       <c r="M4">
-        <v>27.17419320357538</v>
+        <v>2.833349656743223</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6218703456609873</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3028955467561047</v>
+        <v>0.02440658772223259</v>
       </c>
       <c r="D5">
-        <v>0.05230494877130099</v>
+        <v>0.06192295659456448</v>
       </c>
       <c r="E5">
-        <v>0.4905744487666297</v>
+        <v>0.05584139560144763</v>
       </c>
       <c r="F5">
-        <v>2.427070867004375</v>
+        <v>0.9605268230140993</v>
       </c>
       <c r="G5">
-        <v>0.0006890352431859333</v>
+        <v>0.7012375672578486</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.007903046615734238</v>
       </c>
       <c r="I5">
-        <v>1.512881645702251</v>
+        <v>0.001530412720667229</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5326675892060706</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5969757246327418</v>
       </c>
       <c r="L5">
-        <v>0.9748559501946943</v>
+        <v>0.06963948500971284</v>
       </c>
       <c r="M5">
-        <v>25.77836991252155</v>
+        <v>2.717213105592009</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5968555440002277</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3003378914565076</v>
+        <v>0.02392408548671909</v>
       </c>
       <c r="D6">
-        <v>0.05091318653148136</v>
+        <v>0.06175033999149804</v>
       </c>
       <c r="E6">
-        <v>0.4861938531968519</v>
+        <v>0.05561290485669801</v>
       </c>
       <c r="F6">
-        <v>2.396797421542942</v>
+        <v>0.9567678674428279</v>
       </c>
       <c r="G6">
-        <v>0.0006906778431812209</v>
+        <v>0.6979669623826936</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.008040947374138518</v>
       </c>
       <c r="I6">
-        <v>1.492135433921177</v>
+        <v>0.001694435759723056</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5313174046803653</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5939723568726194</v>
       </c>
       <c r="L6">
-        <v>0.9656049588503208</v>
+        <v>0.06931874684267569</v>
       </c>
       <c r="M6">
-        <v>25.55083865805318</v>
+        <v>2.697817519890151</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5927830800131844</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3183094996363423</v>
+        <v>0.02492790030981951</v>
       </c>
       <c r="D7">
-        <v>0.06140167530987384</v>
+        <v>0.0642595952924836</v>
       </c>
       <c r="E7">
-        <v>0.51711333311912</v>
+        <v>0.05740784602658877</v>
       </c>
       <c r="F7">
-        <v>2.616904645132053</v>
+        <v>0.9698733946016347</v>
       </c>
       <c r="G7">
-        <v>0.0006791432884250317</v>
+        <v>0.7076464690650539</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.007156922637080398</v>
       </c>
       <c r="I7">
-        <v>1.64433602134315</v>
+        <v>0.001403888664680331</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5340146079507662</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6026660662103964</v>
       </c>
       <c r="L7">
-        <v>1.03114212588747</v>
+        <v>0.07119623309160161</v>
       </c>
       <c r="M7">
-        <v>27.15506411987593</v>
+        <v>2.831484165323332</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6217539551808926</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4054395565770506</v>
+        <v>0.03003011649700937</v>
       </c>
       <c r="D8">
-        <v>0.1379786319920058</v>
+        <v>0.07505419488955312</v>
       </c>
       <c r="E8">
-        <v>0.6723289986708139</v>
+        <v>0.06528087965343943</v>
       </c>
       <c r="F8">
-        <v>3.947782337191683</v>
+        <v>1.033101411159279</v>
       </c>
       <c r="G8">
-        <v>0.0006229783768151673</v>
+        <v>0.7556376385750809</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.003956384938992641</v>
       </c>
       <c r="I8">
-        <v>2.612107821956656</v>
+        <v>0.000716210619978952</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.548810563514877</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6452079622898808</v>
       </c>
       <c r="L8">
-        <v>1.369099170568546</v>
+        <v>0.07952940186292778</v>
       </c>
       <c r="M8">
-        <v>35.14346090865342</v>
+        <v>3.421317756256542</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.7494708512095727</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4054395565770506</v>
+        <v>0.04135188619395791</v>
       </c>
       <c r="D9">
-        <v>0.1379786319920058</v>
+        <v>0.09598084374314197</v>
       </c>
       <c r="E9">
-        <v>0.6723289986708139</v>
+        <v>0.0807336286548157</v>
       </c>
       <c r="F9">
-        <v>3.947782337191683</v>
+        <v>1.170682480054211</v>
       </c>
       <c r="G9">
-        <v>0.0006229783768151673</v>
+        <v>0.8629181539592423</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0005216987457119515</v>
       </c>
       <c r="I9">
-        <v>2.612107821956656</v>
+        <v>0.002432006350678861</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5851639943007854</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.7378977398847653</v>
       </c>
       <c r="L9">
-        <v>1.369099170568546</v>
+        <v>0.09595669676174978</v>
       </c>
       <c r="M9">
-        <v>35.14346090865342</v>
+        <v>4.579656017877255</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.000373263789896</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4054395565770506</v>
+        <v>0.05034858594213887</v>
       </c>
       <c r="D10">
-        <v>0.1379786319920058</v>
+        <v>0.1094836871647544</v>
       </c>
       <c r="E10">
-        <v>0.6723289986708139</v>
+        <v>0.08805993063715434</v>
       </c>
       <c r="F10">
-        <v>3.947782337191683</v>
+        <v>1.249364458608554</v>
       </c>
       <c r="G10">
-        <v>0.0006229783768151673</v>
+        <v>0.9244187020584462</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.000201033627621694</v>
       </c>
       <c r="I10">
-        <v>2.612107821956656</v>
+        <v>0.006187415795277929</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6034293211161241</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.7921253666593771</v>
       </c>
       <c r="L10">
-        <v>1.369099170568546</v>
+        <v>0.1022496475633403</v>
       </c>
       <c r="M10">
-        <v>35.14346090865342</v>
+        <v>5.44276969522906</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.174173351185246</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4054395565770506</v>
+        <v>0.0626308837243883</v>
       </c>
       <c r="D11">
-        <v>0.1379786319920058</v>
+        <v>0.09569220662555011</v>
       </c>
       <c r="E11">
-        <v>0.6723289986708139</v>
+        <v>0.06067090737835912</v>
       </c>
       <c r="F11">
-        <v>3.947782337191683</v>
+        <v>1.070836256515051</v>
       </c>
       <c r="G11">
-        <v>0.0006229783768151673</v>
+        <v>0.7829707605839644</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01877850511384338</v>
       </c>
       <c r="I11">
-        <v>2.612107821956656</v>
+        <v>0.008139580956203929</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5257616723213232</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6945949748880551</v>
       </c>
       <c r="L11">
-        <v>1.369099170568546</v>
+        <v>0.06864154395323574</v>
       </c>
       <c r="M11">
-        <v>35.14346090865342</v>
+        <v>5.919266516808534</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.152125668702681</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4054395565770506</v>
+        <v>0.07338262922182537</v>
       </c>
       <c r="D12">
-        <v>0.1379786319920058</v>
+        <v>0.08166659438910528</v>
       </c>
       <c r="E12">
-        <v>0.6723289986708139</v>
+        <v>0.04379624662359394</v>
       </c>
       <c r="F12">
-        <v>3.947782337191683</v>
+        <v>0.9204473599741192</v>
       </c>
       <c r="G12">
-        <v>0.0006229783768151673</v>
+        <v>0.6654800608453542</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05743071188183535</v>
       </c>
       <c r="I12">
-        <v>2.612107821956656</v>
+        <v>0.008512405292966818</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4635281430199996</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.6114446788596339</v>
       </c>
       <c r="L12">
-        <v>1.369099170568546</v>
+        <v>0.05747132554687218</v>
       </c>
       <c r="M12">
-        <v>35.14346090865342</v>
+        <v>6.143177054160731</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.096342929139013</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4054395565770506</v>
+        <v>0.08219248568416049</v>
       </c>
       <c r="D13">
-        <v>0.1379786319920058</v>
+        <v>0.06736958114085212</v>
       </c>
       <c r="E13">
-        <v>0.6723289986708139</v>
+        <v>0.03410402458683315</v>
       </c>
       <c r="F13">
-        <v>3.947782337191683</v>
+        <v>0.7766725452404089</v>
       </c>
       <c r="G13">
-        <v>0.0006229783768151673</v>
+        <v>0.5530445123243481</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131479153723518</v>
       </c>
       <c r="I13">
-        <v>2.612107821956656</v>
+        <v>0.007902548138650545</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.406137428508643</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5285145242541844</v>
       </c>
       <c r="L13">
-        <v>1.369099170568546</v>
+        <v>0.06246194332990207</v>
       </c>
       <c r="M13">
-        <v>35.14346090865342</v>
+        <v>6.182629345039345</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.012196989058701</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4054395565770506</v>
+        <v>0.08721757817701814</v>
       </c>
       <c r="D14">
-        <v>0.1379786319920058</v>
+        <v>0.05757447426827156</v>
       </c>
       <c r="E14">
-        <v>0.6723289986708139</v>
+        <v>0.03163065664620412</v>
       </c>
       <c r="F14">
-        <v>3.947782337191683</v>
+        <v>0.6803818097584866</v>
       </c>
       <c r="G14">
-        <v>0.0006229783768151673</v>
+        <v>0.4774980880989972</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1624994231344346</v>
       </c>
       <c r="I14">
-        <v>2.612107821956656</v>
+        <v>0.007143367706200721</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3685065478102558</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4707646892297532</v>
       </c>
       <c r="L14">
-        <v>1.369099170568546</v>
+        <v>0.07552826338308094</v>
       </c>
       <c r="M14">
-        <v>35.14346090865342</v>
+        <v>6.126469378381046</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.941172861044052</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4054395565770506</v>
+        <v>0.08743955687667437</v>
       </c>
       <c r="D15">
-        <v>0.1379786319920058</v>
+        <v>0.05511364832941723</v>
       </c>
       <c r="E15">
-        <v>0.6723289986708139</v>
+        <v>0.03151961983499518</v>
       </c>
       <c r="F15">
-        <v>3.947782337191683</v>
+        <v>0.6560862011794271</v>
       </c>
       <c r="G15">
-        <v>0.0006229783768151673</v>
+        <v>0.4581376940062398</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1750223676576468</v>
       </c>
       <c r="I15">
-        <v>2.612107821956656</v>
+        <v>0.006862726638148686</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3593668437258231</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4551785493680569</v>
       </c>
       <c r="L15">
-        <v>1.369099170568546</v>
+        <v>0.07970821248076376</v>
       </c>
       <c r="M15">
-        <v>35.14346090865342</v>
+        <v>6.072633758920176</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.9180958753130071</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4054395565770506</v>
+        <v>0.08073250910848628</v>
       </c>
       <c r="D16">
-        <v>0.1379786319920058</v>
+        <v>0.05278932419385285</v>
       </c>
       <c r="E16">
-        <v>0.6723289986708139</v>
+        <v>0.03062935800080702</v>
       </c>
       <c r="F16">
-        <v>3.947782337191683</v>
+        <v>0.6512257527629401</v>
       </c>
       <c r="G16">
-        <v>0.0006229783768151673</v>
+        <v>0.4534337225904466</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1624487626268802</v>
       </c>
       <c r="I16">
-        <v>2.612107821956656</v>
+        <v>0.005238527671867388</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3622934758261493</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4476933242275294</v>
       </c>
       <c r="L16">
-        <v>1.369099170568546</v>
+        <v>0.07580388537666138</v>
       </c>
       <c r="M16">
-        <v>35.14346090865342</v>
+        <v>5.688440759578725</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.8629712232850437</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4054395565770506</v>
+        <v>0.07294182521550852</v>
       </c>
       <c r="D17">
-        <v>0.1379786319920058</v>
+        <v>0.05606965919481155</v>
       </c>
       <c r="E17">
-        <v>0.6723289986708139</v>
+        <v>0.03053275425385016</v>
       </c>
       <c r="F17">
-        <v>3.947782337191683</v>
+        <v>0.6972414194605392</v>
       </c>
       <c r="G17">
-        <v>0.0006229783768151673</v>
+        <v>0.4888827302915644</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1248310670282677</v>
       </c>
       <c r="I17">
-        <v>2.612107821956656</v>
+        <v>0.00448435506785394</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3840843835272381</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4718857833133185</v>
       </c>
       <c r="L17">
-        <v>1.369099170568546</v>
+        <v>0.06430325384760849</v>
       </c>
       <c r="M17">
-        <v>35.14346090865342</v>
+        <v>5.424702416021262</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.8580167299318191</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4054395565770506</v>
+        <v>0.06455283388632438</v>
       </c>
       <c r="D18">
-        <v>0.1379786319920058</v>
+        <v>0.06489983472403793</v>
       </c>
       <c r="E18">
-        <v>0.6723289986708139</v>
+        <v>0.03495757203347072</v>
       </c>
       <c r="F18">
-        <v>3.947782337191683</v>
+        <v>0.8004613736629693</v>
       </c>
       <c r="G18">
-        <v>0.0006229783768151673</v>
+        <v>0.5699245973303988</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07204353898031712</v>
       </c>
       <c r="I18">
-        <v>2.612107821956656</v>
+        <v>0.003998163849884051</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4279875386372964</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5311160434451878</v>
       </c>
       <c r="L18">
-        <v>1.369099170568546</v>
+        <v>0.05377235540884939</v>
       </c>
       <c r="M18">
-        <v>35.14346090865342</v>
+        <v>5.235291708753721</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8957798157679235</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4054395565770506</v>
+        <v>0.05502694379548956</v>
       </c>
       <c r="D19">
-        <v>0.1379786319920058</v>
+        <v>0.07915172308249652</v>
       </c>
       <c r="E19">
-        <v>0.6723289986708139</v>
+        <v>0.04848805453764626</v>
       </c>
       <c r="F19">
-        <v>3.947782337191683</v>
+        <v>0.9458630422835483</v>
       </c>
       <c r="G19">
-        <v>0.0006229783768151673</v>
+        <v>0.6834870010615361</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02665640699140681</v>
       </c>
       <c r="I19">
-        <v>2.612107821956656</v>
+        <v>0.004222762669463975</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.487040281415247</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.612867022661014</v>
       </c>
       <c r="L19">
-        <v>1.369099170568546</v>
+        <v>0.05779420433613769</v>
       </c>
       <c r="M19">
-        <v>35.14346090865342</v>
+        <v>5.119829970006663</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9666746069152481</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4054395565770506</v>
+        <v>0.04558650023953703</v>
       </c>
       <c r="D20">
-        <v>0.1379786319920058</v>
+        <v>0.1071137857627278</v>
       </c>
       <c r="E20">
-        <v>0.6723289986708139</v>
+        <v>0.08614961144560596</v>
       </c>
       <c r="F20">
-        <v>3.947782337191683</v>
+        <v>1.214588805329456</v>
       </c>
       <c r="G20">
-        <v>0.0006229783768151673</v>
+        <v>0.8943328265149404</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001303318271772547</v>
       </c>
       <c r="I20">
-        <v>2.612107821956656</v>
+        <v>0.005676597589344468</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5915360178993438</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7651864321686546</v>
       </c>
       <c r="L20">
-        <v>1.369099170568546</v>
+        <v>0.1000062233867034</v>
       </c>
       <c r="M20">
-        <v>35.14346090865342</v>
+        <v>5.215087739933836</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.128658080658653</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4054395565770506</v>
+        <v>0.0514741014321487</v>
       </c>
       <c r="D21">
-        <v>0.1379786319920058</v>
+        <v>0.1211875513463099</v>
       </c>
       <c r="E21">
-        <v>0.6723289986708139</v>
+        <v>0.09833823948315512</v>
       </c>
       <c r="F21">
-        <v>3.947782337191683</v>
+        <v>1.318286856886516</v>
       </c>
       <c r="G21">
-        <v>0.0006229783768151673</v>
+        <v>0.9764926909691667</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0003479022421035705</v>
       </c>
       <c r="I21">
-        <v>2.612107821956656</v>
+        <v>0.00939895648331035</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6233781663054287</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8316175928347533</v>
       </c>
       <c r="L21">
-        <v>1.369099170568546</v>
+        <v>0.1138301697101625</v>
       </c>
       <c r="M21">
-        <v>35.14346090865342</v>
+        <v>5.864842822201979</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.280480499962636</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4054395565770506</v>
+        <v>0.05687130020032072</v>
       </c>
       <c r="D22">
-        <v>0.1379786319920058</v>
+        <v>0.1286707206348439</v>
       </c>
       <c r="E22">
-        <v>0.6723289986708139</v>
+        <v>0.1041166288181081</v>
       </c>
       <c r="F22">
-        <v>3.947782337191683</v>
+        <v>1.379847826158539</v>
       </c>
       <c r="G22">
-        <v>0.0006229783768151673</v>
+        <v>1.026682744411119</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001040434864902684</v>
       </c>
       <c r="I22">
-        <v>2.612107821956656</v>
+        <v>0.01212784359168229</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6424443805028233</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.8735475957079188</v>
       </c>
       <c r="L22">
-        <v>1.369099170568546</v>
+        <v>0.1201176401796147</v>
       </c>
       <c r="M22">
-        <v>35.14346090865342</v>
+        <v>6.296055958741817</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.373864021373095</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4054395565770506</v>
+        <v>0.05490504552237496</v>
       </c>
       <c r="D23">
-        <v>0.1379786319920058</v>
+        <v>0.1241656347337141</v>
       </c>
       <c r="E23">
-        <v>0.6723289986708139</v>
+        <v>0.1009463130042505</v>
       </c>
       <c r="F23">
-        <v>3.947782337191683</v>
+        <v>1.351722556395117</v>
       </c>
       <c r="G23">
-        <v>0.0006229783768151673</v>
+        <v>1.004652907977714</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0006298442316445829</v>
       </c>
       <c r="I23">
-        <v>2.612107821956656</v>
+        <v>0.01037488645761098</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6346736852376438</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.8556791414384293</v>
       </c>
       <c r="L23">
-        <v>1.369099170568546</v>
+        <v>0.1168893441844219</v>
       </c>
       <c r="M23">
-        <v>35.14346090865342</v>
+        <v>6.066219121528832</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.323729674249122</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4054395565770506</v>
+        <v>0.04610224745657376</v>
       </c>
       <c r="D24">
-        <v>0.1379786319920058</v>
+        <v>0.1080869057421268</v>
       </c>
       <c r="E24">
-        <v>0.6723289986708139</v>
+        <v>0.08917855240523664</v>
       </c>
       <c r="F24">
-        <v>3.947782337191683</v>
+        <v>1.240139612158615</v>
       </c>
       <c r="G24">
-        <v>0.0006229783768151673</v>
+        <v>0.916026434265234</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.781200120320463E-06</v>
       </c>
       <c r="I24">
-        <v>2.612107821956656</v>
+        <v>0.005260538624930255</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6027002459414348</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7820437746249382</v>
       </c>
       <c r="L24">
-        <v>1.369099170568546</v>
+        <v>0.1045317381297686</v>
       </c>
       <c r="M24">
-        <v>35.14346090865342</v>
+        <v>5.197806128750472</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.13504459617306</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4054395565770506</v>
+        <v>0.0369014762567943</v>
       </c>
       <c r="D25">
-        <v>0.1379786319920058</v>
+        <v>0.09101437946014101</v>
       </c>
       <c r="E25">
-        <v>0.6723289986708139</v>
+        <v>0.07665295615063883</v>
       </c>
       <c r="F25">
-        <v>3.947782337191683</v>
+        <v>1.125273380632933</v>
       </c>
       <c r="G25">
-        <v>0.0006229783768151673</v>
+        <v>0.8257230565100286</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001124941876853747</v>
       </c>
       <c r="I25">
-        <v>2.612107821956656</v>
+        <v>0.001941755329085915</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5711094952932285</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7055454960994751</v>
       </c>
       <c r="L25">
-        <v>1.369099170568546</v>
+        <v>0.09131685921588684</v>
       </c>
       <c r="M25">
-        <v>35.14346090865342</v>
+        <v>4.265333546193233</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0.9327468529402054</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0324784500986226</v>
+        <v>0.01223087956181246</v>
       </c>
       <c r="D2">
-        <v>0.07742498587358426</v>
+        <v>0.0948614071238012</v>
       </c>
       <c r="E2">
-        <v>0.06732634459780584</v>
+        <v>0.07157828729882709</v>
       </c>
       <c r="F2">
-        <v>1.056416119381026</v>
+        <v>0.9045202504652039</v>
       </c>
       <c r="G2">
-        <v>0.7748161583076154</v>
+        <v>0.6089069086812344</v>
       </c>
       <c r="H2">
-        <v>0.003259839840494494</v>
+        <v>0.003027734955806327</v>
       </c>
       <c r="I2">
-        <v>0.0004571794671153206</v>
+        <v>0.000672857876331534</v>
       </c>
       <c r="J2">
-        <v>0.5560161938468156</v>
+        <v>0.5007007747992702</v>
       </c>
       <c r="K2">
-        <v>0.6623078594871643</v>
+        <v>0.5170338321518244</v>
       </c>
       <c r="L2">
-        <v>0.08193072496111498</v>
+        <v>0.2485243769277936</v>
       </c>
       <c r="M2">
-        <v>3.581578532240655</v>
+        <v>0.1490628535589202</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.08009697743144528</v>
       </c>
       <c r="O2">
-        <v>0.7838028161886896</v>
+        <v>3.578044201843795</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7925888079223924</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02827856711240884</v>
+        <v>0.01234020419119375</v>
       </c>
       <c r="D3">
-        <v>0.06899477218477301</v>
+        <v>0.08412707077582127</v>
       </c>
       <c r="E3">
-        <v>0.06114680156839647</v>
+        <v>0.0653019033134381</v>
       </c>
       <c r="F3">
-        <v>1.005020076921348</v>
+        <v>0.872248752878761</v>
       </c>
       <c r="G3">
-        <v>0.7354410034783143</v>
+        <v>0.5905437681613677</v>
       </c>
       <c r="H3">
-        <v>0.005452015715415592</v>
+        <v>0.004964162655253179</v>
       </c>
       <c r="I3">
-        <v>0.0006435284095873683</v>
+        <v>0.0005212742248197344</v>
       </c>
       <c r="J3">
-        <v>0.5434669582905514</v>
+        <v>0.4925163139527484</v>
       </c>
       <c r="K3">
-        <v>0.6276564546438408</v>
+        <v>0.4992252876761114</v>
       </c>
       <c r="L3">
-        <v>0.07537493937740791</v>
+        <v>0.2485410529162877</v>
       </c>
       <c r="M3">
-        <v>3.118023259122197</v>
+        <v>0.1364389911646704</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0745098356572278</v>
       </c>
       <c r="O3">
-        <v>0.6834361351721228</v>
+        <v>3.117191713490342</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6909326616649665</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02568778213174028</v>
+        <v>0.01248274281834227</v>
       </c>
       <c r="D4">
-        <v>0.06387411744226057</v>
+        <v>0.07761873010924347</v>
       </c>
       <c r="E4">
-        <v>0.0573625290211357</v>
+        <v>0.06145888635661478</v>
       </c>
       <c r="F4">
-        <v>0.9741665548162715</v>
+        <v>0.852907475961544</v>
       </c>
       <c r="G4">
-        <v>0.7119108073238465</v>
+        <v>0.5798840624739228</v>
       </c>
       <c r="H4">
-        <v>0.007133331366859064</v>
+        <v>0.006440802045064253</v>
       </c>
       <c r="I4">
-        <v>0.001154980015276585</v>
+        <v>0.0007155199827768577</v>
       </c>
       <c r="J4">
-        <v>0.5361746472449909</v>
+        <v>0.4875538345746406</v>
       </c>
       <c r="K4">
-        <v>0.6066342609729531</v>
+        <v>0.4883288313749148</v>
       </c>
       <c r="L4">
-        <v>0.07132802942735239</v>
+        <v>0.2483633189381642</v>
       </c>
       <c r="M4">
-        <v>2.833349656743223</v>
+        <v>0.1294320522061199</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.07104857077589344</v>
       </c>
       <c r="O4">
-        <v>0.6218703456609873</v>
+        <v>2.833939607588093</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6285433473848769</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02440658772223259</v>
+        <v>0.01243382043814734</v>
       </c>
       <c r="D5">
-        <v>0.06192295659456448</v>
+        <v>0.07511035822403045</v>
       </c>
       <c r="E5">
-        <v>0.05584139560144763</v>
+        <v>0.05991357203532921</v>
       </c>
       <c r="F5">
-        <v>0.9605268230140993</v>
+        <v>0.8441074504151089</v>
       </c>
       <c r="G5">
-        <v>0.7012375672578486</v>
+        <v>0.5746930997143807</v>
       </c>
       <c r="H5">
-        <v>0.007903046615734238</v>
+        <v>0.007115047175578509</v>
       </c>
       <c r="I5">
-        <v>0.001530412720667229</v>
+        <v>0.0009459948808236973</v>
       </c>
       <c r="J5">
-        <v>0.5326675892060706</v>
+        <v>0.4850123884406941</v>
       </c>
       <c r="K5">
-        <v>0.5969757246327418</v>
+        <v>0.4829836803907313</v>
       </c>
       <c r="L5">
-        <v>0.06963948500971284</v>
+        <v>0.2478357870778076</v>
       </c>
       <c r="M5">
-        <v>2.717213105592009</v>
+        <v>0.1264828208033535</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.06960050357155723</v>
       </c>
       <c r="O5">
-        <v>0.5968555440002277</v>
+        <v>2.718336236226293</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6031809890880169</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02392408548671909</v>
+        <v>0.01227682469107094</v>
       </c>
       <c r="D6">
-        <v>0.06175033999149804</v>
+        <v>0.07484744908806107</v>
       </c>
       <c r="E6">
-        <v>0.05561290485669801</v>
+        <v>0.05968030674870661</v>
       </c>
       <c r="F6">
-        <v>0.9567678674428279</v>
+        <v>0.8413972176157287</v>
       </c>
       <c r="G6">
-        <v>0.6979669623826936</v>
+        <v>0.5726314575701821</v>
       </c>
       <c r="H6">
-        <v>0.008040947374138518</v>
+        <v>0.007235455554842729</v>
       </c>
       <c r="I6">
-        <v>0.001694435759723056</v>
+        <v>0.001098490308920397</v>
       </c>
       <c r="J6">
-        <v>0.5313174046803653</v>
+        <v>0.4839404745019209</v>
       </c>
       <c r="K6">
-        <v>0.5939723568726194</v>
+        <v>0.4809853810528253</v>
       </c>
       <c r="L6">
-        <v>0.06931874684267569</v>
+        <v>0.2472487437387052</v>
       </c>
       <c r="M6">
-        <v>2.697817519890151</v>
+        <v>0.1256642927009892</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.06932414225606109</v>
       </c>
       <c r="O6">
-        <v>0.5927830800131844</v>
+        <v>2.699035047569254</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5990441268081454</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02492790030981951</v>
+        <v>0.01218644165134464</v>
       </c>
       <c r="D7">
-        <v>0.0642595952924836</v>
+        <v>0.07825972485898802</v>
       </c>
       <c r="E7">
-        <v>0.05740784602658877</v>
+        <v>0.06154138483267246</v>
       </c>
       <c r="F7">
-        <v>0.9698733946016347</v>
+        <v>0.8472725752389039</v>
       </c>
       <c r="G7">
-        <v>0.7076464690650539</v>
+        <v>0.5788799749701354</v>
       </c>
       <c r="H7">
-        <v>0.007156922637080398</v>
+        <v>0.006467288700439888</v>
       </c>
       <c r="I7">
-        <v>0.001403888664680331</v>
+        <v>0.001001056322509797</v>
       </c>
       <c r="J7">
-        <v>0.5340146079507662</v>
+        <v>0.4800559109813065</v>
       </c>
       <c r="K7">
-        <v>0.6026660662103964</v>
+        <v>0.4838950574649559</v>
       </c>
       <c r="L7">
-        <v>0.07119623309160161</v>
+        <v>0.2464450767875732</v>
       </c>
       <c r="M7">
-        <v>2.831484165323332</v>
+        <v>0.1280199014971188</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.07087407883076224</v>
       </c>
       <c r="O7">
-        <v>0.6217539551808926</v>
+        <v>2.831940924907599</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6285302994555053</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03003011649700937</v>
+        <v>0.0120904760784164</v>
       </c>
       <c r="D8">
-        <v>0.07505419488955312</v>
+        <v>0.09256942534601365</v>
       </c>
       <c r="E8">
-        <v>0.06528087965343943</v>
+        <v>0.06963214526978589</v>
       </c>
       <c r="F8">
-        <v>1.033101411159279</v>
+        <v>0.8819036768727031</v>
       </c>
       <c r="G8">
-        <v>0.7556376385750809</v>
+        <v>0.6060370608980605</v>
       </c>
       <c r="H8">
-        <v>0.003956384938992641</v>
+        <v>0.003659376326083486</v>
       </c>
       <c r="I8">
-        <v>0.000716210619978952</v>
+        <v>0.0008868125598411325</v>
       </c>
       <c r="J8">
-        <v>0.548810563514877</v>
+        <v>0.4769929911102935</v>
       </c>
       <c r="K8">
-        <v>0.6452079622898808</v>
+        <v>0.5025379990538354</v>
       </c>
       <c r="L8">
-        <v>0.07952940186292778</v>
+        <v>0.2451260450172086</v>
       </c>
       <c r="M8">
-        <v>3.421317756256542</v>
+        <v>0.141714407913117</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.07785787631146945</v>
       </c>
       <c r="O8">
-        <v>0.7494708512095727</v>
+        <v>3.41823915959327</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7582129493831076</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04135188619395791</v>
+        <v>0.01291331891755476</v>
       </c>
       <c r="D9">
-        <v>0.09598084374314197</v>
+        <v>0.1196499648134619</v>
       </c>
       <c r="E9">
-        <v>0.0807336286548157</v>
+        <v>0.08536535434661374</v>
       </c>
       <c r="F9">
-        <v>1.170682480054211</v>
+        <v>0.9676972945283211</v>
       </c>
       <c r="G9">
-        <v>0.8629181539592423</v>
+        <v>0.6620012554798649</v>
       </c>
       <c r="H9">
-        <v>0.0005216987457119515</v>
+        <v>0.000559127964870898</v>
       </c>
       <c r="I9">
-        <v>0.002432006350678861</v>
+        <v>0.002702419547381041</v>
       </c>
       <c r="J9">
-        <v>0.5851639943007854</v>
+        <v>0.494889619502402</v>
       </c>
       <c r="K9">
-        <v>0.7378977398847653</v>
+        <v>0.5497901365299214</v>
       </c>
       <c r="L9">
-        <v>0.09595669676174978</v>
+        <v>0.2453642201294244</v>
       </c>
       <c r="M9">
-        <v>4.579656017877255</v>
+        <v>0.1780034010398879</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.09173486151399146</v>
       </c>
       <c r="O9">
-        <v>1.000373263789896</v>
+        <v>4.567977408586387</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.012234418091786</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.05034858594213887</v>
+        <v>0.01538166172041144</v>
       </c>
       <c r="D10">
-        <v>0.1094836871647544</v>
+        <v>0.1387586076525764</v>
       </c>
       <c r="E10">
-        <v>0.08805993063715434</v>
+        <v>0.09289604238198379</v>
       </c>
       <c r="F10">
-        <v>1.249364458608554</v>
+        <v>1.000749534752813</v>
       </c>
       <c r="G10">
-        <v>0.9244187020584462</v>
+        <v>0.7052896495361693</v>
       </c>
       <c r="H10">
-        <v>0.000201033627621694</v>
+        <v>0.000187709950169257</v>
       </c>
       <c r="I10">
-        <v>0.006187415795277929</v>
+        <v>0.005839680609060593</v>
       </c>
       <c r="J10">
-        <v>0.6034293211161241</v>
+        <v>0.4698748784787625</v>
       </c>
       <c r="K10">
-        <v>0.7921253666593771</v>
+        <v>0.5667686880691392</v>
       </c>
       <c r="L10">
-        <v>0.1022496475633403</v>
+        <v>0.2381579059800814</v>
       </c>
       <c r="M10">
-        <v>5.44276969522906</v>
+        <v>0.2012802820005746</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.09608484216477819</v>
       </c>
       <c r="O10">
-        <v>1.174173351185246</v>
+        <v>5.422132050015932</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.188586903728805</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0626308837243883</v>
+        <v>0.02564474182433685</v>
       </c>
       <c r="D11">
-        <v>0.09569220662555011</v>
+        <v>0.1244988095515254</v>
       </c>
       <c r="E11">
-        <v>0.06067090737835912</v>
+        <v>0.06388190780194591</v>
       </c>
       <c r="F11">
-        <v>1.070836256515051</v>
+        <v>0.8307223594555069</v>
       </c>
       <c r="G11">
-        <v>0.7829707605839644</v>
+        <v>0.6203880406864073</v>
       </c>
       <c r="H11">
-        <v>0.01877850511384338</v>
+        <v>0.01875280605391438</v>
       </c>
       <c r="I11">
-        <v>0.008139580956203929</v>
+        <v>0.00753971734336023</v>
       </c>
       <c r="J11">
-        <v>0.5257616723213232</v>
+        <v>0.359300173057747</v>
       </c>
       <c r="K11">
-        <v>0.6945949748880551</v>
+        <v>0.4803965421370009</v>
       </c>
       <c r="L11">
-        <v>0.06864154395323574</v>
+        <v>0.2021849031745937</v>
       </c>
       <c r="M11">
-        <v>5.919266516808534</v>
+        <v>0.1741694312978623</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.06411148340477091</v>
       </c>
       <c r="O11">
-        <v>1.152125668702681</v>
+        <v>5.894414945859864</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.167217729538407</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07338262922182537</v>
+        <v>0.03592470888334276</v>
       </c>
       <c r="D12">
-        <v>0.08166659438910528</v>
+        <v>0.1077876863911698</v>
       </c>
       <c r="E12">
-        <v>0.04379624662359394</v>
+        <v>0.04541126606289936</v>
       </c>
       <c r="F12">
-        <v>0.9204473599741192</v>
+        <v>0.7035584450429511</v>
       </c>
       <c r="G12">
-        <v>0.6654800608453542</v>
+        <v>0.5399285171908019</v>
       </c>
       <c r="H12">
-        <v>0.05743071188183535</v>
+        <v>0.05741987849006591</v>
       </c>
       <c r="I12">
-        <v>0.008512405292966818</v>
+        <v>0.007820057390583557</v>
       </c>
       <c r="J12">
-        <v>0.4635281430199996</v>
+        <v>0.302229456689517</v>
       </c>
       <c r="K12">
-        <v>0.6114446788596339</v>
+        <v>0.417413930829845</v>
       </c>
       <c r="L12">
-        <v>0.05747132554687218</v>
+        <v>0.1786748531591336</v>
       </c>
       <c r="M12">
-        <v>6.143177054160731</v>
+        <v>0.1510575040157534</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.05490423216557394</v>
       </c>
       <c r="O12">
-        <v>1.096342929139013</v>
+        <v>6.117381529276884</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.111039022426581</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08219248568416049</v>
+        <v>0.04525422729965101</v>
       </c>
       <c r="D13">
-        <v>0.06736958114085212</v>
+        <v>0.08875978964822195</v>
       </c>
       <c r="E13">
-        <v>0.03410402458683315</v>
+        <v>0.03422193788596228</v>
       </c>
       <c r="F13">
-        <v>0.7766725452404089</v>
+        <v>0.5978426293472481</v>
       </c>
       <c r="G13">
-        <v>0.5530445123243481</v>
+        <v>0.4495747109564263</v>
       </c>
       <c r="H13">
-        <v>0.1131479153723518</v>
+        <v>0.1131734215816067</v>
       </c>
       <c r="I13">
-        <v>0.007902548138650545</v>
+        <v>0.007358416489334552</v>
       </c>
       <c r="J13">
-        <v>0.406137428508643</v>
+        <v>0.2771887200737453</v>
       </c>
       <c r="K13">
-        <v>0.5285145242541844</v>
+        <v>0.3651668825199437</v>
       </c>
       <c r="L13">
-        <v>0.06246194332990207</v>
+        <v>0.1612585676196652</v>
       </c>
       <c r="M13">
-        <v>6.182629345039345</v>
+        <v>0.1289336072103247</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0619564480660415</v>
       </c>
       <c r="O13">
-        <v>1.012196989058701</v>
+        <v>6.159041282398675</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.02533643382916</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08721757817701814</v>
+        <v>0.05113471703396044</v>
       </c>
       <c r="D14">
-        <v>0.05757447426827156</v>
+        <v>0.07505441592743978</v>
       </c>
       <c r="E14">
-        <v>0.03163065664620412</v>
+        <v>0.03089085676179854</v>
       </c>
       <c r="F14">
-        <v>0.6803818097584866</v>
+        <v>0.5327712013255166</v>
       </c>
       <c r="G14">
-        <v>0.4774980880989972</v>
+        <v>0.3844069257016542</v>
       </c>
       <c r="H14">
-        <v>0.1624994231344346</v>
+        <v>0.1625493249046315</v>
       </c>
       <c r="I14">
-        <v>0.007143367706200721</v>
+        <v>0.006809990837727042</v>
       </c>
       <c r="J14">
-        <v>0.3685065478102558</v>
+        <v>0.2700178820155017</v>
       </c>
       <c r="K14">
-        <v>0.4707646892297532</v>
+        <v>0.332494098274374</v>
       </c>
       <c r="L14">
-        <v>0.07552826338308094</v>
+        <v>0.1512113197708658</v>
       </c>
       <c r="M14">
-        <v>6.126469378381046</v>
+        <v>0.1138006511058514</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07630838392784867</v>
       </c>
       <c r="O14">
-        <v>0.941172861044052</v>
+        <v>6.105802371363211</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.9527355892954645</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08743955687667437</v>
+        <v>0.05177687700373212</v>
       </c>
       <c r="D15">
-        <v>0.05511364832941723</v>
+        <v>0.07136034288443227</v>
       </c>
       <c r="E15">
-        <v>0.03151961983499518</v>
+        <v>0.03064064522580612</v>
       </c>
       <c r="F15">
-        <v>0.6560862011794271</v>
+        <v>0.5185265961344996</v>
       </c>
       <c r="G15">
-        <v>0.4581376940062398</v>
+        <v>0.3661644810991973</v>
       </c>
       <c r="H15">
-        <v>0.1750223676576468</v>
+        <v>0.1750801532351289</v>
       </c>
       <c r="I15">
-        <v>0.006862726638148686</v>
+        <v>0.006646588393349084</v>
       </c>
       <c r="J15">
-        <v>0.3593668437258231</v>
+        <v>0.2719591517181286</v>
       </c>
       <c r="K15">
-        <v>0.4551785493680569</v>
+        <v>0.3250332161118727</v>
       </c>
       <c r="L15">
-        <v>0.07970821248076376</v>
+        <v>0.1492801345628614</v>
       </c>
       <c r="M15">
-        <v>6.072633758920176</v>
+        <v>0.1097678261951494</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.08076952726010944</v>
       </c>
       <c r="O15">
-        <v>0.9180958753130071</v>
+        <v>6.053311614437689</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.9290595291977866</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08073250910848628</v>
+        <v>0.04614526382735562</v>
       </c>
       <c r="D16">
-        <v>0.05278932419385285</v>
+        <v>0.06629919503925663</v>
       </c>
       <c r="E16">
-        <v>0.03062935800080702</v>
+        <v>0.03018457991252643</v>
       </c>
       <c r="F16">
-        <v>0.6512257527629401</v>
+        <v>0.5351210237909214</v>
       </c>
       <c r="G16">
-        <v>0.4534337225904466</v>
+        <v>0.3495099026343951</v>
       </c>
       <c r="H16">
-        <v>0.1624487626268802</v>
+        <v>0.1625202290123724</v>
       </c>
       <c r="I16">
-        <v>0.005238527671867388</v>
+        <v>0.005414695646856593</v>
       </c>
       <c r="J16">
-        <v>0.3622934758261493</v>
+        <v>0.3092041605384281</v>
       </c>
       <c r="K16">
-        <v>0.4476933242275294</v>
+        <v>0.3341486566207159</v>
       </c>
       <c r="L16">
-        <v>0.07580388537666138</v>
+        <v>0.1559671127341744</v>
       </c>
       <c r="M16">
-        <v>5.688440759578725</v>
+        <v>0.1081051232714039</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07688251671983437</v>
       </c>
       <c r="O16">
-        <v>0.8629712232850437</v>
+        <v>5.674548651212376</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.8721380105116125</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07294182521550852</v>
+        <v>0.03920328668155548</v>
       </c>
       <c r="D17">
-        <v>0.05606965919481155</v>
+        <v>0.06956986245933905</v>
       </c>
       <c r="E17">
-        <v>0.03053275425385016</v>
+        <v>0.03071696747503794</v>
       </c>
       <c r="F17">
-        <v>0.6972414194605392</v>
+        <v>0.5811022675996895</v>
       </c>
       <c r="G17">
-        <v>0.4888827302915644</v>
+        <v>0.371708258234257</v>
       </c>
       <c r="H17">
-        <v>0.1248310670282677</v>
+        <v>0.1248927112726221</v>
       </c>
       <c r="I17">
-        <v>0.00448435506785394</v>
+        <v>0.004823510889012894</v>
       </c>
       <c r="J17">
-        <v>0.3840843835272381</v>
+        <v>0.3419776555384502</v>
       </c>
       <c r="K17">
-        <v>0.4718857833133185</v>
+        <v>0.3576009639628737</v>
       </c>
       <c r="L17">
-        <v>0.06430325384760849</v>
+        <v>0.1665668751126717</v>
       </c>
       <c r="M17">
-        <v>5.424702416021262</v>
+        <v>0.1141619949168664</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06494510249481067</v>
       </c>
       <c r="O17">
-        <v>0.8580167299318191</v>
+        <v>5.413028533039721</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.8667936839051009</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06455283388632438</v>
+        <v>0.03109083326127404</v>
       </c>
       <c r="D18">
-        <v>0.06489983472403793</v>
+        <v>0.08033912409299404</v>
       </c>
       <c r="E18">
-        <v>0.03495757203347072</v>
+        <v>0.0360655597243289</v>
       </c>
       <c r="F18">
-        <v>0.8004613736629693</v>
+        <v>0.667679925869102</v>
       </c>
       <c r="G18">
-        <v>0.5699245973303988</v>
+        <v>0.4305655277217966</v>
       </c>
       <c r="H18">
-        <v>0.07204353898031712</v>
+        <v>0.07210001114096087</v>
       </c>
       <c r="I18">
-        <v>0.003998163849884051</v>
+        <v>0.004334310616938453</v>
       </c>
       <c r="J18">
-        <v>0.4279875386372964</v>
+        <v>0.3826975227281793</v>
       </c>
       <c r="K18">
-        <v>0.5311160434451878</v>
+        <v>0.401992188335683</v>
       </c>
       <c r="L18">
-        <v>0.05377235540884939</v>
+        <v>0.1840416921467529</v>
       </c>
       <c r="M18">
-        <v>5.235291708753721</v>
+        <v>0.1295800844106267</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.053430601443889</v>
       </c>
       <c r="O18">
-        <v>0.8957798157679235</v>
+        <v>5.223879938878156</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.9051001875097597</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05502694379548956</v>
+        <v>0.02224777926097232</v>
       </c>
       <c r="D19">
-        <v>0.07915172308249652</v>
+        <v>0.09805574536903805</v>
       </c>
       <c r="E19">
-        <v>0.04848805453764626</v>
+        <v>0.05083710193874147</v>
       </c>
       <c r="F19">
-        <v>0.9458630422835483</v>
+        <v>0.7846411610629644</v>
       </c>
       <c r="G19">
-        <v>0.6834870010615361</v>
+        <v>0.5143624316305448</v>
       </c>
       <c r="H19">
-        <v>0.02665640699140681</v>
+        <v>0.02671344612966209</v>
       </c>
       <c r="I19">
-        <v>0.004222762669463975</v>
+        <v>0.004553484485763093</v>
       </c>
       <c r="J19">
-        <v>0.487040281415247</v>
+        <v>0.4295106753759086</v>
       </c>
       <c r="K19">
-        <v>0.612867022661014</v>
+        <v>0.4593829894267216</v>
       </c>
       <c r="L19">
-        <v>0.05779420433613769</v>
+        <v>0.2054976633261631</v>
       </c>
       <c r="M19">
-        <v>5.119829970006663</v>
+        <v>0.1511679886881581</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.05589228988788797</v>
       </c>
       <c r="O19">
-        <v>0.9666746069152481</v>
+        <v>5.107364764618524</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9771393000666464</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04558650023953703</v>
+        <v>0.01310964331386089</v>
       </c>
       <c r="D20">
-        <v>0.1071137857627278</v>
+        <v>0.1339620246789366</v>
       </c>
       <c r="E20">
-        <v>0.08614961144560596</v>
+        <v>0.09077350153891572</v>
       </c>
       <c r="F20">
-        <v>1.214588805329456</v>
+        <v>0.9880068798540833</v>
       </c>
       <c r="G20">
-        <v>0.8943328265149404</v>
+        <v>0.6742081723163267</v>
       </c>
       <c r="H20">
-        <v>0.0001303318271772547</v>
+        <v>0.0001532604680716254</v>
       </c>
       <c r="I20">
-        <v>0.005676597589344468</v>
+        <v>0.005736309243526527</v>
       </c>
       <c r="J20">
-        <v>0.5915360178993438</v>
+        <v>0.4898614622741064</v>
       </c>
       <c r="K20">
-        <v>0.7651864321686546</v>
+        <v>0.5574175830840531</v>
       </c>
       <c r="L20">
-        <v>0.1000062233867034</v>
+        <v>0.2382821036859539</v>
       </c>
       <c r="M20">
-        <v>5.215087739933836</v>
+        <v>0.1930637040917205</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.09461133797612931</v>
       </c>
       <c r="O20">
-        <v>1.128658080658653</v>
+        <v>5.197774214592471</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.14191541826699</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0514741014321487</v>
+        <v>0.01633438792917019</v>
       </c>
       <c r="D21">
-        <v>0.1211875513463099</v>
+        <v>0.1587141538554135</v>
       </c>
       <c r="E21">
-        <v>0.09833823948315512</v>
+        <v>0.1043233077137309</v>
       </c>
       <c r="F21">
-        <v>1.318286856886516</v>
+        <v>1.009169582610696</v>
       </c>
       <c r="G21">
-        <v>0.9764926909691667</v>
+        <v>0.7822957469442997</v>
       </c>
       <c r="H21">
-        <v>0.0003479022421035705</v>
+        <v>0.0001884155495979201</v>
       </c>
       <c r="I21">
-        <v>0.00939895648331035</v>
+        <v>0.00854115433039393</v>
       </c>
       <c r="J21">
-        <v>0.6233781663054287</v>
+        <v>0.3931522023049183</v>
       </c>
       <c r="K21">
-        <v>0.8316175928347533</v>
+        <v>0.5634423092196954</v>
       </c>
       <c r="L21">
-        <v>0.1138301697101625</v>
+        <v>0.2303802767287344</v>
       </c>
       <c r="M21">
-        <v>5.864842822201979</v>
+        <v>0.2088676495484307</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1053393744414244</v>
       </c>
       <c r="O21">
-        <v>1.280480499962636</v>
+        <v>5.835945921380301</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.298294235224574</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05687130020032072</v>
+        <v>0.01984729756057391</v>
       </c>
       <c r="D22">
-        <v>0.1286707206348439</v>
+        <v>0.1735141799444619</v>
       </c>
       <c r="E22">
-        <v>0.1041166288181081</v>
+        <v>0.1109869976020512</v>
       </c>
       <c r="F22">
-        <v>1.379847826158539</v>
+        <v>1.014804443598308</v>
       </c>
       <c r="G22">
-        <v>1.026682744411119</v>
+        <v>0.8577908205775913</v>
       </c>
       <c r="H22">
-        <v>0.001040434864902684</v>
+        <v>0.0006627331223472144</v>
       </c>
       <c r="I22">
-        <v>0.01212784359168229</v>
+        <v>0.01039696167930515</v>
       </c>
       <c r="J22">
-        <v>0.6424443805028233</v>
+        <v>0.3331367827874274</v>
       </c>
       <c r="K22">
-        <v>0.8735475957079188</v>
+        <v>0.5645499660470534</v>
       </c>
       <c r="L22">
-        <v>0.1201176401796147</v>
+        <v>0.2243284607102858</v>
       </c>
       <c r="M22">
-        <v>6.296055958741817</v>
+        <v>0.2184417545923409</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1096415871448997</v>
       </c>
       <c r="O22">
-        <v>1.373864021373095</v>
+        <v>6.258798824494477</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.394751460807711</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05490504552237496</v>
+        <v>0.01810718569933556</v>
       </c>
       <c r="D23">
-        <v>0.1241656347337141</v>
+        <v>0.1642797149136754</v>
       </c>
       <c r="E23">
-        <v>0.1009463130042505</v>
+        <v>0.1072157499372786</v>
       </c>
       <c r="F23">
-        <v>1.351722556395117</v>
+        <v>1.020787941923786</v>
       </c>
       <c r="G23">
-        <v>1.004652907977714</v>
+        <v>0.814008929537593</v>
       </c>
       <c r="H23">
-        <v>0.0006298442316445829</v>
+        <v>0.0003795021593349102</v>
       </c>
       <c r="I23">
-        <v>0.01037488645761098</v>
+        <v>0.00907490181363535</v>
       </c>
       <c r="J23">
-        <v>0.6346736852376438</v>
+        <v>0.3761208149381474</v>
       </c>
       <c r="K23">
-        <v>0.8556791414384293</v>
+        <v>0.5705312018664443</v>
       </c>
       <c r="L23">
-        <v>0.1168893441844219</v>
+        <v>0.2298008345029778</v>
       </c>
       <c r="M23">
-        <v>6.066219121528832</v>
+        <v>0.2160004353123028</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.107598486059846</v>
       </c>
       <c r="O23">
-        <v>1.323729674249122</v>
+        <v>6.033905341797151</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.34265489079057</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04610224745657376</v>
+        <v>0.01314254906011669</v>
       </c>
       <c r="D24">
-        <v>0.1080869057421268</v>
+        <v>0.1352864660605491</v>
       </c>
       <c r="E24">
-        <v>0.08917855240523664</v>
+        <v>0.09396897820750638</v>
       </c>
       <c r="F24">
-        <v>1.240139612158615</v>
+        <v>1.008928760530438</v>
       </c>
       <c r="G24">
-        <v>0.916026434265234</v>
+        <v>0.690372392658702</v>
       </c>
       <c r="H24">
-        <v>6.781200120320463E-06</v>
+        <v>2.575373288848937E-05</v>
       </c>
       <c r="I24">
-        <v>0.005260538624930255</v>
+        <v>0.005212618365243671</v>
       </c>
       <c r="J24">
-        <v>0.6027002459414348</v>
+        <v>0.4993063506902331</v>
       </c>
       <c r="K24">
-        <v>0.7820437746249382</v>
+        <v>0.5698212200357986</v>
       </c>
       <c r="L24">
-        <v>0.1045317381297686</v>
+        <v>0.2429329466003267</v>
       </c>
       <c r="M24">
-        <v>5.197806128750472</v>
+        <v>0.1977215211429311</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.0988956376998722</v>
       </c>
       <c r="O24">
-        <v>1.13504459617306</v>
+        <v>5.180362457268131</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.148429325698885</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0369014762567943</v>
+        <v>0.01174212494788662</v>
       </c>
       <c r="D25">
-        <v>0.09101437946014101</v>
+        <v>0.1126382473781433</v>
       </c>
       <c r="E25">
-        <v>0.07665295615063883</v>
+        <v>0.08114907670966787</v>
       </c>
       <c r="F25">
-        <v>1.125273380632933</v>
+        <v>0.9408602372177342</v>
       </c>
       <c r="G25">
-        <v>0.8257230565100286</v>
+        <v>0.6368857008087616</v>
       </c>
       <c r="H25">
-        <v>0.001124941876853747</v>
+        <v>0.00111676816724815</v>
       </c>
       <c r="I25">
-        <v>0.001941755329085915</v>
+        <v>0.002387878094652685</v>
       </c>
       <c r="J25">
-        <v>0.5711094952932285</v>
+        <v>0.4947983314089726</v>
       </c>
       <c r="K25">
-        <v>0.7055454960994751</v>
+        <v>0.533454654889141</v>
       </c>
       <c r="L25">
-        <v>0.09131685921588684</v>
+        <v>0.2441183164978895</v>
       </c>
       <c r="M25">
-        <v>4.265333546193233</v>
+        <v>0.1662330120900037</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.08790575818914093</v>
       </c>
       <c r="O25">
-        <v>0.9327468529402054</v>
+        <v>4.256589576690828</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.9435975155219154</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
